--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -58,458 +58,1153 @@
     <x:t>视频</x:t>
   </x:si>
   <x:si>
-    <x:t>X1803091026200628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>蕃茄娃娃</x:t>
+    <x:t>X1803091026190619</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nana0021</x:t>
   </x:si>
   <x:si>
     <x:t>小红书</x:t>
   </x:si>
   <x:si>
-    <x:t>家居,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>同时活跃在各大美妆社区平台。热爱分享彩妆咨询与测评。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小红书原创撰写+拍照=1000（含产品），无产品1200.价格到5月</x:t>
+    <x:t>美食,母婴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱美妆，爱分享</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创，价格保留到4月</x:t>
   </x:si>
   <x:si>
     <x:t>2018-04-30</x:t>
   </x:si>
   <x:si>
-    <x:t>X1804021737350672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kiki_zhu</x:t>
+    <x:t>X1804021736290155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>恩熙Miya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94年美妆博主|坐标广东|156cm/40kg|混油白皮彩妆试色|护肤技巧|时尚穿搭|美甲好物|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，价格到4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736400252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>柠檬树上的小九</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>分享口红试色、护肤知识</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图问，价格到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737160523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>袁小花木有鱼丸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美妆,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>人生理想是开大宾利去接小伙子撸串</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，价格到4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736320183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ai叶晚晚</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一枚学环艺的小可爱丨160cm&amp;41kg丨夏混油冬混干丨试色美甲穿搭手绘分享～</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，价格到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736160049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yyyyyan___</x:t>
   </x:si>
   <x:si>
     <x:t>生活,美妆,洗护</x:t>
   </x:si>
   <x:si>
-    <x:t>彩妆控|内双之光|爱口红眼影高光|护肤钻研中</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创出境，价格到4月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026140583</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Miss.張小昕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美食,文学文化,美妆</x:t>
+    <x:t>混干皮护肤美妆美食旅游在红书认真种草，希望种出草原，常探店</x:t>
+  </x:si>
+  <x:si>
+    <x:t>原创价格 保留到9月份</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737390700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>男人相</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美妆,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 尽量保证，每个月月末分享一次爱用品。不定期分享护肤干货、妆容look、穿搭、试色功课</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736170053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宥子lucky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>摄影,宠物,美妆,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>私服穿搭/摄影p图/护肤健身/养生保健/就是喜欢记录自己越来越好一个好玩儿的宥子呀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091026160595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kyrua十月狂想</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宠物,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUS语言学硕士，护肤、护发、护体修炼中，追求形式上的美感和使用上的实用有效！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737100481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xinbaooooo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宠物,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>新宝天天见，一个爱化妆爱修图爱分享的买买买girl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，价格到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091026130571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>viansue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,旅游,摄影</x:t>
+  </x:si>
+  <x:si>
+    <x:t>各大旅行平台签约旅行博主，非专业摄影师，吃不胖的瘦子。分享旅行/美食。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，出镜等其他要求加500,只接受更改一次，价格保留到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736330192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nancy不重名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小红书时尚达人</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500-800含原创出境，价格不变</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737030421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vkshing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,母婴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olly的成长日记</x:t>
+  </x:si>
+  <x:si>
+    <x:t>原创图文1-1.85k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737030425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>剁了手用脚买</x:t>
+  </x:si>
+  <x:si>
+    <x:t>时尚穿搭|美妆护肤|美食生活|娱乐搞笑|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，直发1k,测评合集2000，价格到5月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737000397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小静子lyj</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,摄影,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，价格到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737340664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jia_gi_bre</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">浅唇，冷一白。试色=参考≠标准答案粉丝+裙请私撩，合适我会邀请你～ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2k-3.6k含原创出境，直发2k，价格到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737200559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Josie_tt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,健身,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">白羊女想养一头驴努力提升综合实力｜169cm47kg </x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091026050508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>有腔调的娃娃菜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美妆博主，喜欢护肤、母婴、美食，喜欢分享！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创，送产品-100，价格到3月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804121405333167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>兔几酱酱</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">不出境700 出境800-850 价格到4月底 赠送产品可以优惠
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736180061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>≮素、年锦时</x:t>
+  </x:si>
+  <x:si>
+    <x:t>旅游,美妆,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱好书法，诗词的中文系妹子丨1.65m&amp;46kg混油痘肌丨不定期分享_xD83C__xDF38_美妆穿搭书法丨全部原创，为个人分享，不得以任何形式转载</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091026030496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>老邱宝宝的好宝宝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美妆</x:t>
   </x:si>
   <x:si>
     <x:t>美妆博主</x:t>
   </x:si>
   <x:si>
-    <x:t>含原创，价格保留到5月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021737150515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>榴莲甜甜圈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美食,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>数据不错</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创出境，价格到5月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021737400716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>肉肉mua</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美妆,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创出境</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026120568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>张琰晞</x:t>
+    <x:t>X1803091026030493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>妮妮妮喔喔喔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,母婴,家居</x:t>
+  </x:si>
+  <x:si>
+    <x:t>因你而幸运！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创，价格到6月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736300171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hello长颈鹿小姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>微胖界最美仙女|热爱唇膏眼影|冬天沙漠皮夏天混油皮</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091026020482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PumpkinMon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,美食,宠物</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在帝都&amp;羊城来回✈️的潮汕妹纸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>送产品600，含原创，价格保留到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736440288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rachel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>旅游,健身</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，出境只露局部，价格到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025360272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美芽媽媽又瘋又傻</x:t>
+  </x:si>
+  <x:si>
+    <x:t>母婴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱护肤的外油内干混合皮90后辣妈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创，出境+200，探店1k</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025340260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ms莫_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>文学文化,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>时尚博主</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736120013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小小shiny呀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一枚纯情可爱小逗逼、90后老阿姨，来啊！一起剁手，互相伤害啊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，价格到6月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736180065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bobo爱喵喵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宠物,美妆,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>感恩</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，探店1k，价格到6月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025340257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>闭快快</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,宠物,健身</x:t>
+  </x:si>
+  <x:si>
+    <x:t>可交流|闭快快</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创含出境，价格到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737080461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>芥末色的喵</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,摄影,宠物,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>修图护肤旅行彩妆摄影英归分享所有好用哒好玩哒</x:t>
+  </x:si>
+  <x:si>
+    <x:t>唇膏试色每多一只+100  价格到4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736250125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shelley_萱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>母婴,美妆,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>擅长各类试色｜换句话说就是：喜欢各种瞎捣鼓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1801110935180206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宋香香的洋葱头</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>专业护肤博主自爆肤质：敏感肌、痘痘肌、大油皮</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，不好沟通，价格到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737310640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>樱洛女郎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>文学文化,影视,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>电影、小说、时尚、美物</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025300229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>密斯晨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,旅游,女性时尚</x:t>
+  </x:si>
+  <x:si>
+    <x:t>自由行|深度游|小众旅游景点|试睡师|美食美酒|时尚管理|目前_xD83D__xDCCD_吉隆坡|下一站暹粒_xD83D__xDD1C_上海</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736130021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>疏影</x:t>
   </x:si>
   <x:si>
     <x:t>母婴,洗护</x:t>
   </x:si>
   <x:si>
-    <x:t>种草达人</x:t>
+    <x:t>爱种草♥喜欢尝试新鲜的东西也喜欢把好的东西分享给大家</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200-300看产品和发稿要求，含原创图文</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737230575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>callme阿姨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>callme王阿姨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>护肤狂热爱好者，资深美妆产品经理。3岁乖囡甜妈，9年混迹Top美妆公司，目前正在为拯救全宇宙美少女们的皮肤困扰绞尽脑汁。各平台账号一致。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>普通笔记2000元一篇（含原创出境）；合集2500一篇，视频和线下探店3000元一篇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737550832</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大Lui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大睿睿</x:t>
+  </x:si>
+  <x:si>
+    <x:t>穿搭&amp;美妆_xD83D__xDCCD_纽约&amp;波士顿</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737130497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manty_Yin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>女性时尚,美妆,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>时尚博主&amp;美妆达人</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，出境+500，价格到4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737580848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>胡議尹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>艺人造型师magius品牌主理人爱分享爱种草爱湉宝爱生活</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创出境，会先试用产品，产品得到认可 才会有接下来的合作
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736110005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蔷薇Audrey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804091018472219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>毛毛酱moyi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">美妆博主 时尚美妆视频自媒体
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创图文 不赠送产品图文2000 价格到5月底
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736500340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>iamjingming</x:t>
+  </x:si>
+  <x:si>
+    <x:t>母婴,影视,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱护肤、爱彩妆、爱小红书...哦耶✌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文，</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736510344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小豆纸Della</x:t>
+  </x:si>
+  <x:si>
+    <x:t>宠物,美妆,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>要拥有一个有趣的灵魂~160cm，47kg。</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境800-1k，送产品-200，价格到6月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737400708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>神经质的大Mo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱吃虾，爱吃虾，爱吃虾，爱吃虾</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025230169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ms_GuY</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">分享日常妆容和爱用小物
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736200081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christy_Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,母婴,摄影,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>我不是女超人但只要你需要我就会在。小铮姐姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创图文,价格到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737230579</x:t>
+  </x:si>
+  <x:si>
+    <x:t>脸很大的喵酱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>护肤彩妆控|防晒狂魔|魔都混油</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804121417393419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joika的日系混搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">日系时尚杂志策划 | 喜欢Easy Chic的穿搭风格！
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创图文，价格到4月底
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736260129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>剁手小公举Leo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>母婴,宠物,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>黄皮妹子大油皮贫民窟少女一枚和我一起在小红书成长吧</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，原创图文400，直发300，价格到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737430740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>玛小粒Marley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,宠物,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">专业剁手20余年/不正经时尚穿搭_xD83D__xDC54_彩妆护肤_xD83D__xDC8B_频道/人称行走的种草机/美粒粒坐标深圳&amp;香港，得闲饮茶 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，产品寄回-1k，价格到6月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737000401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jayla可儿</x:t>
+  </x:si>
+  <x:si>
+    <x:t>173/54双子女➰春夏混干，秋冬敏感大干皮专业媒体编辑、业余美妆试色，专注护肤抗敏感_xD83C__xDF3F_喜欢分享一切好吃的好玩的好用的</x:t>
+  </x:si>
+  <x:si>
+    <x:t>图文直发700，图文原创1000，出镜1200，视频1800，价格到5月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736200085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>only娜娜N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>母婴,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>各大美妆频道美容护肤达人</x:t>
   </x:si>
   <x:si>
     <x:t>含原创出境，价格到6月</x:t>
   </x:si>
   <x:si>
-    <x:t>X1804021737200555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>怪阿姨呀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>科技,美妆,穿搭</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 化妆师、美妆博主、平面模特主业：it狗、技术宅软件工程师</x:t>
-  </x:si>
-  <x:si>
-    <x:t>原创出境2-2.5k，价格到4月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026110553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>熊熊熊熊熊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美食,旅游,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>分享护肤、美食、旅行</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021737120489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>韦韦韦欣言</x:t>
-  </x:si>
-  <x:si>
-    <x:t>旅游,美妆,穿搭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>分享穿搭、美妆、日常！｜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804121146580573</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">小鱼微微  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>小鱼微微</x:t>
-  </x:si>
-  <x:si>
-    <x:t>宠物,美妆,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">kpi不错
+    <x:t>X1804021736260133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>是你的主机哥</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱护肤，彩妆，喜欢不定时分享心得，感恩你们的一直陪伴，渣</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736360216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>婷子Jess</x:t>
+  </x:si>
+  <x:si>
+    <x:t>旅游,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美妆时尚博主</x:t>
+  </x:si>
+  <x:si>
+    <x:t>笔记含原创出境，视频不出境</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736260137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missminnie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,美妆,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>单眼皮妹砸，风格时而软妹纸时而硬汉子。美妆、穿搭、生活</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，视频800-1k，线下1.5-2k，调整会通知</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025210151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>狐狸小姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>探店的元气少女</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，探店</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737480776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>涂涂妹妹OuO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>摄影,宠物,美妆,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>分享各种杂七杂八</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，调价通知</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736210089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>晶QAQ晶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,美妆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>大三学生党~酷爱彩妆~各种彩妆控~小吃货一枚~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736210093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>我是浩爷</x:t>
+  </x:si>
+  <x:si>
+    <x:t>遇到最好的自己</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737240583</x:t>
+  </x:si>
+  <x:si>
+    <x:t>哈鲁小姐姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>中国美术学院设计师，护肤美妆研究员</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737330652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rina610</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">爱撸日常妆的设计师 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736220097</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinky-heart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,文学文化,美妆,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>护肤，美妆，试色</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736360220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>阿吃怪</x:t>
+  </x:si>
+  <x:si>
+    <x:t>600-800含原创出境，价格保留4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736270141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>米饭_丫头</x:t>
+  </x:si>
+  <x:si>
+    <x:t>剁手是个病………混干敏感肌…口红控，面膜控…囤货没得治…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>护肤品500，彩妆600，价格到4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025180127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fisher_F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱画画爱手工爱一切美的事物，也是一个正在美妆路上不断跋涉的小红薯，立志永远做小仙女。欢迎大家来互粉种草~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，探店600，价格到4月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025150103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>吴小牛</x:t>
+  </x:si>
+  <x:si>
+    <x:t>羊毛，彩妆控，护肤狂，不贴面膜会死星人，吃货，小白鼠一枚，欢迎交流</x:t>
+  </x:si>
+  <x:si>
+    <x:t>口红三只以上多一只+200 价格到5月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025140091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>崔花花花9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱美食爱护肤爱美妆爱穿搭爱分享</x:t>
+  </x:si>
+  <x:si>
+    <x:t>价格含原创，价格保留到4月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736230105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amanda冰冰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>签约平面模特</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736150037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>边本佳利</x:t>
+  </x:si>
+  <x:si>
+    <x:t>穿搭|护肤|美妆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创出境，价格到10月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737260599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>禁止麦芽糖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>英国硕士前电视台记者前雅思名师29岁油痘皮分享实用美妆/穿搭/英语学习/品质生活</x:t>
+  </x:si>
+  <x:si>
+    <x:t>两千以上的产品可以减500 价格到5月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737300631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ashley0723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021737380692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一只歪阿歪</x:t>
+  </x:si>
+  <x:si>
+    <x:t>健身,美妆,穿搭,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>原创出境2.5k-4k，价格到6月</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804021736520357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>天才牙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>坐标杭州混油痘肌美食美妆，文具病不定期更新手帐，擅长洗护带货力较强</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025070026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lxy的大宝宝</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美食,美妆</x:t>
+  </x:si>
+  <x:si>
+    <x:t>研究僧程序媛的护肤美妆心得，吃喝玩乐日常，93巨蟹少女爱美爱买爱吃爱做菜爱分享好物中科大的不务正业美妆博主</x:t>
+  </x:si>
+  <x:si>
+    <x:t>含原创含出境，价格到2月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1803091025040002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>美丫-Tianna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,母婴,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱护肤爱生活爱分享的时尚辣妈一枚，愿世界和平！</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804131754511254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaylorkaylor</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">时尚博主
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">含原创出境，直发500，价格到6月
+    <x:t xml:space="preserve">价格含原创
 </x:t>
   </x:si>
   <x:si>
-    <x:t>2018-06-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736490328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wanzil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>旅游,宠物,美妆,穿搭,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>沉迷彩妆和护肤只愿做一个认真穿搭的水瓶座小姐姐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736170057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>丰子啊丰子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>生活,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>乐于分享护肤彩妆的吃货一枚，海淘达人</x:t>
-  </x:si>
-  <x:si>
-    <x:t>口红两只以上多一只+200 价格到6月份</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026090543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WenDy小妖</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美食,母婴,家居,美妆</x:t>
-  </x:si>
-  <x:si>
-    <x:t>母婴，护肤美妆，家居，美食</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026090540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>梁有病的狗狗叫葫芦娃和百度</x:t>
-  </x:si>
-  <x:si>
-    <x:t>宠物,影视</x:t>
-  </x:si>
-  <x:si>
-    <x:t>贫民窟的萌点还极低的所以一直吃土</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创，价格到3月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026080534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vivian_J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>爱旅游～爱买买买～爱分享</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736590393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>柠檬不靠谱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美妆,穿搭,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170、50喜欢美妆、专业护肤的小仙女～</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736290163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tAt超想吃可爱多</x:t>
-  </x:si>
-  <x:si>
-    <x:t>口红狂热热爱者想试色安利一万遍黄一白_xD83D__xDCCD_浅唇无滤镜仅磨皮偶有护肤心得</x:t>
-  </x:si>
-  <x:si>
-    <x:t>单件600，合集700，美容仪700，价格保留到6月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026060517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Panda熊猫宝宝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美妆护肤博主-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创含出境,价格保留到3月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021737120493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>提拉米苏happy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>知名美妆博主，时尚美妆亲子Kol围~脖:心事街邮局</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736340200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>周姑娘名小诗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美妆</x:t>
-  </x:si>
-  <x:si>
-    <x:t>双下巴美妆博主，shopping上瘾症患者，强势种草机</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创出境，价格变动通知</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091026050511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>孙闪闪</x:t>
-  </x:si>
-  <x:si>
-    <x:t>穿搭,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>杂志编辑</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736340204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sophiafun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>知名美妆博主</x:t>
-  </x:si>
-  <x:si>
-    <x:t>单品价格 手机视频具体价格看合作 资生堂品牌有优惠 保留到4月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804121408293320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eva仙女宝宝</x:t>
-  </x:si>
-  <x:si>
-    <x:t>影视,美妆,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">吃喝玩乐笔记，爱旅游，爱吃，爱看电影，爱健身，爱分享的仙女宝宝
+    <x:t>X1804121709265020</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">芯语小仙女 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>芯语小仙女</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">/
 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创出境，探店+笔记2k，价格到6月
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804231338391962</x:t>
+  </x:si>
+  <x:si>
+    <x:t>碳水少女_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,美食</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一个忽胖忽瘦的小女孩 我才不要当什么90后老阿姨呢</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">含原创出境，价格到6月
 </x:t>
   </x:si>
   <x:si>
-    <x:t>X1804121410213349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>二沈婶</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">95的一只双鱼| 身高165 思想跳跃的少女    美妆、护肤、穿搭
+    <x:t>2018-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804121711175025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MrWatch表先生</x:t>
+  </x:si>
+  <x:si>
+    <x:t>数码,穿搭</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">资深金融狗/手表疯狂爱好者，定期推荐各类名表的男博主
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">含原创出境，价格到4月底
+    <x:t>含原创出境，价格到6月底</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804121712255043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>janice简妮</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">旅行玩家 时尚达人 微博签约自媒体
 </x:t>
   </x:si>
   <x:si>
-    <x:t>X1804021737420732</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 吕颖lvy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>吕颖lvy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>生活,美妆,穿搭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>热爱生活的时尚美妆博主和品牌主理人</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021737530812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chic小丸子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>生活,穿搭,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>纽约博主，纽约_xD83D__xDD1B_上海|原创穿搭，在显瘦穿搭的路上乐此不疲！旅行达人，爱冒险，爱极限，爱生活。</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1-1.5w含原创出境，价格到4月底</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021737040429</x:t>
-  </x:si>
-  <x:si>
-    <x:t>磨人的妖精</x:t>
-  </x:si>
-  <x:si>
-    <x:t>生活,美食,母婴,文学文化</x:t>
-  </x:si>
-  <x:si>
-    <x:t>吃喝玩乐书虫喜欢分享有一个萌妹心的轻熟女</x:t>
-  </x:si>
-  <x:si>
-    <x:t>原创 不出镜，价格到6月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736140033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小新有点酷</x:t>
-  </x:si>
-  <x:si>
-    <x:t>文学文化,健身,穿搭,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>穿搭|健身|小说|护肤|美妆|巴卫中毒</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091025280210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>王阿燃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>健身,影视,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>太多繁花|谢了难舍</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创，价格到5月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1803091025280207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>白西柚</x:t>
-  </x:si>
-  <x:si>
-    <x:t>美食,音乐</x:t>
-  </x:si>
-  <x:si>
-    <x:t>专注种草20年(•̀ω•́)✧|南方混干皮|黄一白深唇色|分享好用好吃好玩，偶尔吐吐槽|哪里都叫白西柚</x:t>
-  </x:si>
-  <x:si>
-    <x:t>含原创不露脸，产品赠送-300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1802281657591814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>萌小糖</x:t>
-  </x:si>
-  <x:si>
-    <x:t>母婴,女性时尚,穿搭</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">大学钢琴老师，用心分享好物！
+    <x:t xml:space="preserve">含原创出境，价格到5月
 </x:t>
   </x:si>
   <x:si>
-    <x:t>含测评原创，价格保留到3月</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1804021736190077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>性感的猫咪控</x:t>
-  </x:si>
-  <x:si>
-    <x:t>母婴,宠物,美妆,洗护</x:t>
-  </x:si>
-  <x:si>
-    <x:t>爱美妆、爱护肤、爱分享~93年的宝妈一枚~</x:t>
+    <x:t>2018-05-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804131757541266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>语晴小姐姐</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,宠物,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创出境
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">身高176假装在减肥的90后猪猪精女孩
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804131759230010</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">爱玩耍的小毛妈 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>爱玩耍的小毛妈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>生活,美食,母婴,洗护</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">逗比“辣妈”小毛妈！爱旅游的吃货一枚，整天有着天马行空的想法
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804130959390088</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">白雪公主的后妈 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>白雪公主的后妈</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创出境，价格到6月
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804131004340144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>小宝浍1013</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">三亚雅尚传媒美容编辑 知名美妆博主 头条文章作者
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804131011470191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>蘑菇头日记</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Lifestyle Blogger 爱旅行/摄影/时尚/艺术/探店 ～南大本科 港中文硕士
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创出境
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X1804131805310211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>清朵朵</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">来互赞啊～小姐姐们～
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">含原创出境，直发300，价格到7月
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-07-30</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -580,8 +1275,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N33" totalsRowShown="0">
-  <x:autoFilter ref="A1:N33"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N88" totalsRowShown="0">
+  <x:autoFilter ref="A1:N88"/>
   <x:tableColumns count="14">
     <x:tableColumn id="1" name="Id"/>
     <x:tableColumn id="2" name="结算人"/>
@@ -890,22 +1585,22 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N33"/>
+  <x:dimension ref="A1:N88"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="19.920625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.800625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.280625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.775425" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.165425" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="31.800625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.280625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.985425" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="11.465425" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="26.980625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="105.280625" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="66.560625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="152.400625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="83.730625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="16.075425" style="0" customWidth="1"/>
     <x:col min="12" max="12" width="13.775425" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="11.465425" style="0" customWidth="1"/>
@@ -970,7 +1665,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0.2</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>17</x:v>
@@ -985,7 +1680,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L2" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
         <x:v>0</x:v>
@@ -1008,7 +1703,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>54.9</x:v>
+        <x:v>1.3</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>23</x:v>
@@ -1023,13 +1718,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L3" s="0" t="n">
-        <x:v>4000</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
-        <x:v>4700</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:14">
@@ -1046,7 +1741,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>0.2</x:v>
+        <x:v>3.1</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>28</x:v>
@@ -1061,7 +1756,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L4" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
         <x:v>0</x:v>
@@ -1084,7 +1779,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>7.5</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>33</x:v>
@@ -1099,13 +1794,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L5" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>2300</x:v>
       </x:c>
       <x:c r="M5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14">
@@ -1122,60 +1817,60 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="J6" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="K6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L6" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="M6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>7000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="n">
+        <x:v>1.5</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="n">
-        <x:v>2.9</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
+      <x:c r="I7" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="J7" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="K7" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
         <x:v>0</x:v>
@@ -1186,72 +1881,72 @@
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="n">
-        <x:v>8.2</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
+      <x:c r="I8" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L8" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>4500</x:v>
       </x:c>
       <x:c r="M8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="A9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="n">
+        <x:v>1.1</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="I9" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="n">
-        <x:v>6.3</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
+      <x:c r="J9" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="K9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L9" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
         <x:v>0</x:v>
@@ -1262,110 +1957,110 @@
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="n">
+        <x:v>2.2</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="I10" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="n">
-        <x:v>51.5</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="I11" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="J11" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L11" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>2000</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2500</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14">
       <x:c r="A12" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="n">
-        <x:v>3.4</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="K12" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L12" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
         <x:v>0</x:v>
@@ -1376,34 +2071,34 @@
     </x:row>
     <x:row r="13" spans="1:14">
       <x:c r="A13" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="n">
+        <x:v>2.8</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="J13" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="n">
-        <x:v>1.4</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L13" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
         <x:v>0</x:v>
@@ -1414,34 +2109,34 @@
     </x:row>
     <x:row r="14" spans="1:14">
       <x:c r="A14" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="n">
+        <x:v>11.7</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="J14" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="n">
-        <x:v>1.1</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="J14" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="K14" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L14" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
         <x:v>0</x:v>
@@ -1452,72 +2147,72 @@
     </x:row>
     <x:row r="15" spans="1:14">
       <x:c r="A15" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>5.7</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="J15" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="n">
-        <x:v>0.6</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="K15" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L15" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3000</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:14">
       <x:c r="A16" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>24.6</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="J16" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="n">
-        <x:v>3.8</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="J16" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="K16" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L16" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
         <x:v>0</x:v>
@@ -1528,34 +2223,34 @@
     </x:row>
     <x:row r="17" spans="1:14">
       <x:c r="A17" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>28.3</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="n">
-        <x:v>4.8</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
+      <x:c r="J17" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="K17" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L17" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>3600</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
         <x:v>0</x:v>
@@ -1566,34 +2261,34 @@
     </x:row>
     <x:row r="18" spans="1:14">
       <x:c r="A18" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>11.1</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="n">
-        <x:v>1.5</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K18" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L18" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>2500</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
         <x:v>0</x:v>
@@ -1604,34 +2299,34 @@
     </x:row>
     <x:row r="19" spans="1:14">
       <x:c r="A19" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
+      <x:c r="J19" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="J19" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
       <x:c r="K19" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L19" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
         <x:v>0</x:v>
@@ -1642,110 +2337,107 @@
     </x:row>
     <x:row r="20" spans="1:14">
       <x:c r="A20" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="n">
-        <x:v>11.1</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="J20" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
       <x:c r="K20" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L20" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
-        <x:v>3000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:14">
       <x:c r="A21" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>1.1</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="n">
-        <x:v>27.2</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
+      <x:c r="I21" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K21" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L21" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14">
       <x:c r="A22" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>3.5</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="I22" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="n">
-        <x:v>15.6</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="K22" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L22" s="0" t="n">
-        <x:v>5000</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
         <x:v>0</x:v>
@@ -1756,72 +2448,72 @@
     </x:row>
     <x:row r="23" spans="1:14">
       <x:c r="A23" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="n">
+        <x:v>0.8</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="I23" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="n">
-        <x:v>1.8</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s">
+      <x:c r="J23" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="J23" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
       <x:c r="K23" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:14">
       <x:c r="A24" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="n">
+        <x:v>5.7</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>119</x:v>
-      </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
         <x:v>0</x:v>
@@ -1832,34 +2524,34 @@
     </x:row>
     <x:row r="25" spans="1:14">
       <x:c r="A25" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>5.6</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="J25" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I25" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="J25" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
       <x:c r="K25" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L25" s="0" t="n">
-        <x:v>4500</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
         <x:v>0</x:v>
@@ -1870,72 +2562,72 @@
     </x:row>
     <x:row r="26" spans="1:14">
       <x:c r="A26" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="n">
+        <x:v>3.1</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="I26" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="n">
-        <x:v>23.1</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="J26" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="K26" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>5000</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:14">
       <x:c r="A27" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>6.1</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="J27" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="n">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="J27" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="K27" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L27" s="0" t="n">
-        <x:v>15000</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
         <x:v>0</x:v>
@@ -1946,34 +2638,34 @@
     </x:row>
     <x:row r="28" spans="1:14">
       <x:c r="A28" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="n">
+        <x:v>2.6</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="n">
-        <x:v>9.5</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K28" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L28" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
         <x:v>0</x:v>
@@ -1984,34 +2676,34 @@
     </x:row>
     <x:row r="29" spans="1:14">
       <x:c r="A29" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
-        <x:v>2.1</x:v>
+        <x:v>0.4</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="K29" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L29" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
         <x:v>0</x:v>
@@ -2022,28 +2714,28 @@
     </x:row>
     <x:row r="30" spans="1:14">
       <x:c r="A30" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="K30" s="0" t="s">
         <x:v>20</x:v>
@@ -2060,116 +2752,2203 @@
     </x:row>
     <x:row r="31" spans="1:14">
       <x:c r="A31" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="n">
+        <x:v>0.8</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="J31" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="n">
-        <x:v>11.7</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="J31" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
       <x:c r="K31" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L31" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>800</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:14">
       <x:c r="A32" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="n">
+        <x:v>5.1</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="J32" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="n">
-        <x:v>4.5</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J32" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
       <x:c r="K32" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="L32" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>1600</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:14">
       <x:c r="A33" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="n">
+        <x:v>1.2</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:14">
+      <x:c r="A34" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="B34" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
+      <x:c r="C34" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="G33" s="0" t="n">
+      <x:c r="G34" s="0" t="n">
+        <x:v>2.4</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="K34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L34" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:14">
+      <x:c r="A35" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="K35" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L35" s="0" t="n">
+        <x:v>3200</x:v>
+      </x:c>
+      <x:c r="M35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N35" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:14">
+      <x:c r="A36" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="n">
+        <x:v>20.4</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="n">
+        <x:v>8500</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="n">
+        <x:v>8500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:14">
+      <x:c r="A37" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>0.4</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:14">
+      <x:c r="A38" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="n">
+        <x:v>16.5</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N38" s="0" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:14">
+      <x:c r="A39" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="n">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="n">
+        <x:v>42000</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:14">
+      <x:c r="A40" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>18.5</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:14">
+      <x:c r="A41" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="K41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L41" s="0" t="n">
+        <x:v>80000</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:14">
+      <x:c r="A42" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="n">
+        <x:v>0.2</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="M42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14">
+      <x:c r="A43" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N43" s="0" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:14">
+      <x:c r="A44" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="n">
+        <x:v>4.8</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="K44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L44" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:14">
+      <x:c r="A45" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="n">
+        <x:v>2.1</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="K45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L45" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="M45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:14">
+      <x:c r="A46" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:14">
+      <x:c r="A47" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>36.6</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I47" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N47" s="0" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:14">
+      <x:c r="A48" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="n">
+        <x:v>1.1</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:14">
+      <x:c r="A49" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>51.1</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:14">
+      <x:c r="A50" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I50" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="n">
+        <x:v>8000</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:14">
+      <x:c r="A51" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="n">
+        <x:v>0.3</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:14">
+      <x:c r="A52" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="n">
+        <x:v>12.9</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="n">
+        <x:v>5000</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:14">
+      <x:c r="A53" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="n">
+        <x:v>3.6</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="n">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N53" s="0" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:14">
+      <x:c r="A54" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:14">
+      <x:c r="A55" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="n">
+        <x:v>1.4</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:14">
+      <x:c r="A56" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="n">
+        <x:v>5.3</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N56" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:14">
+      <x:c r="A57" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="n">
+        <x:v>2.3</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="K57" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L57" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N57" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:14">
+      <x:c r="A58" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="n">
+        <x:v>1.2</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="K58" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L58" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:14">
+      <x:c r="A59" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="n">
+        <x:v>19.6</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="K59" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L59" s="0" t="n">
+        <x:v>6000</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:14">
+      <x:c r="A60" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:14">
+      <x:c r="A61" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="n">
+        <x:v>1.4</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K61" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L61" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="M61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:14">
+      <x:c r="A62" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="n">
+        <x:v>36.6</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:14">
+      <x:c r="A63" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="n">
+        <x:v>5.7</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="n">
+        <x:v>3500</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:14">
+      <x:c r="A64" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:14">
+      <x:c r="A65" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="J65" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="K65" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L65" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:14">
+      <x:c r="A66" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="n">
+        <x:v>1.1</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="J66" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="K66" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L66" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:14">
+      <x:c r="A67" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="n">
         <x:v>1.6</x:v>
       </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="J33" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K33" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L33" s="0" t="n">
+      <x:c r="H67" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:14">
+      <x:c r="A68" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="n">
+        <x:v>2.2</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="J68" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="K68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L68" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="M68" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N68" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:14">
+      <x:c r="A69" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="n">
+        <x:v>1.2</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="J69" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="K69" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L69" s="0" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="M69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N69" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:14">
+      <x:c r="A70" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="n">
+        <x:v>1.4</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="n">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="M33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N33" s="0" t="n">
-        <x:v>0</x:v>
+      <x:c r="M70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:14">
+      <x:c r="A71" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="J71" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="K71" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="n">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:14">
+      <x:c r="A72" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="n">
+        <x:v>11.3</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="J72" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="K72" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L72" s="0" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+      <x:c r="M72" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N72" s="0" t="n">
+        <x:v>3800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:14">
+      <x:c r="A73" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="n">
+        <x:v>31.8</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="K73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="n">
+        <x:v>3000</x:v>
+      </x:c>
+      <x:c r="M73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:14">
+      <x:c r="A74" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="n">
+        <x:v>19.3</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="K74" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L74" s="0" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="M74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:14">
+      <x:c r="A75" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="n">
+        <x:v>6.6</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="K75" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L75" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="M75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:14">
+      <x:c r="A76" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="n">
+        <x:v>10.4</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="K76" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L76" s="0" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="M76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:14">
+      <x:c r="A77" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="n">
+        <x:v>1.3</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K77" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L77" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:14">
+      <x:c r="A78" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I78" s="1" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="J78" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="K78" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L78" s="0" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="M78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:14">
+      <x:c r="A79" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="I79" s="1" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="J79" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="K79" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L79" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="M79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:14">
+      <x:c r="A80" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="K80" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="M80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N80" s="0" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:14">
+      <x:c r="A81" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="I81" s="1" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="J81" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="K81" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="L81" s="0" t="n">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="M81" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N81" s="0" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:14">
+      <x:c r="A82" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="I82" s="1" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="J82" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="K82" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="L82" s="0" t="n">
+        <x:v>5000</x:v>
+      </x:c>
+      <x:c r="M82" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N82" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:14">
+      <x:c r="A83" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="I83" s="1" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="J83" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="K83" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L83" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M83" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N83" s="0" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:14">
+      <x:c r="A84" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="I84" s="1" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="K84" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L84" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="M84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N84" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:14">
+      <x:c r="A85" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="J85" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="K85" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L85" s="0" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="M85" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N85" s="0" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:14">
+      <x:c r="A86" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I86" s="1" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="J86" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="K86" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="L86" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M86" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N86" s="0" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:14">
+      <x:c r="A87" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I87" s="1" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="J87" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="K87" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L87" s="0" t="n">
+        <x:v>4000</x:v>
+      </x:c>
+      <x:c r="M87" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N87" s="0" t="n">
+        <x:v>4500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:14">
+      <x:c r="A88" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I88" s="1" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="J88" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="K88" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="L88" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="M88" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N88" s="0" t="n">
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>主键</t>
   </si>
@@ -110,115 +110,244 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1807251618352062</t>
-  </si>
-  <si>
-    <t>X1807171435428837</t>
-  </si>
-  <si>
-    <t>X1809070916493812</t>
-  </si>
-  <si>
-    <t>X1807111523397062</t>
-  </si>
-  <si>
-    <t>X1803091545250045</t>
-  </si>
-  <si>
-    <t>X1803091546020454</t>
-  </si>
-  <si>
-    <t>X1807241620103177</t>
-  </si>
-  <si>
-    <t>X1807251356280090</t>
-  </si>
-  <si>
-    <t>X1807111734341707</t>
-  </si>
-  <si>
-    <t>X1803091545500320</t>
-  </si>
-  <si>
-    <t>X1803091546060496</t>
-  </si>
-  <si>
-    <t>X1805030939027164</t>
-  </si>
-  <si>
-    <t>X1801221113120078</t>
-  </si>
-  <si>
-    <t>X1803091546000433</t>
-  </si>
-  <si>
-    <t>X1807111549288119</t>
-  </si>
-  <si>
-    <t>X1803091546060505</t>
-  </si>
-  <si>
-    <t>X1803091545540373</t>
-  </si>
-  <si>
-    <t>X1808010850071777</t>
-  </si>
-  <si>
-    <t>X1805030930497129</t>
-  </si>
-  <si>
-    <t>X1803091545430249</t>
-  </si>
-  <si>
-    <t>X1807101808265952</t>
-  </si>
-  <si>
-    <t>X1803091545220016</t>
-  </si>
-  <si>
-    <t>X1803091545330140</t>
-  </si>
-  <si>
-    <t>X1807101649280013</t>
-  </si>
-  <si>
-    <t>X1803091545540366</t>
-  </si>
-  <si>
-    <t>X1803091545470285</t>
-  </si>
-  <si>
-    <t>X1807241549159431</t>
-  </si>
-  <si>
-    <t>X1803091546230677</t>
-  </si>
-  <si>
-    <t>X1803091545270073</t>
-  </si>
-  <si>
-    <t>X1803091546090533</t>
-  </si>
-  <si>
-    <t>X1803050931580087</t>
-  </si>
-  <si>
-    <t>X1807111737011740</t>
-  </si>
-  <si>
-    <t>X1712200908210015</t>
-  </si>
-  <si>
-    <t>X1809051236042332</t>
-  </si>
-  <si>
-    <t>X1803091546240684</t>
-  </si>
-  <si>
-    <t>X1803091546010447</t>
-  </si>
-  <si>
-    <t>X1803091545250052</t>
+    <t>X1806061452020021</t>
+  </si>
+  <si>
+    <t>X1804251717093972</t>
+  </si>
+  <si>
+    <t>X1805041702222553</t>
+  </si>
+  <si>
+    <t>X1806191116292904</t>
+  </si>
+  <si>
+    <t>X1805031032537722</t>
+  </si>
+  <si>
+    <t>X1808021026290356</t>
+  </si>
+  <si>
+    <t>X1806211806065661</t>
+  </si>
+  <si>
+    <t>X1803271116313156</t>
+  </si>
+  <si>
+    <t>X1804261122483813</t>
+  </si>
+  <si>
+    <t>X1803271057182270</t>
+  </si>
+  <si>
+    <t>X1804251723564007</t>
+  </si>
+  <si>
+    <t>X1804240914230708</t>
+  </si>
+  <si>
+    <t>X1804251713113880</t>
+  </si>
+  <si>
+    <t>X1804251705133559</t>
+  </si>
+  <si>
+    <t>X1805071505511235</t>
+  </si>
+  <si>
+    <t>X1805071446520014</t>
+  </si>
+  <si>
+    <t>X1805181335023610</t>
+  </si>
+  <si>
+    <t>X1805041754564606</t>
+  </si>
+  <si>
+    <t>X1803291657036702</t>
+  </si>
+  <si>
+    <t>X1803271103312513</t>
+  </si>
+  <si>
+    <t>X1803271113392914</t>
+  </si>
+  <si>
+    <t>X1805041753134313</t>
+  </si>
+  <si>
+    <t>X1806061435100200</t>
+  </si>
+  <si>
+    <t>X1808021029170593</t>
+  </si>
+  <si>
+    <t>X1805030947177208</t>
+  </si>
+  <si>
+    <t>X1805041704342571</t>
+  </si>
+  <si>
+    <t>X1804251721343995</t>
+  </si>
+  <si>
+    <t>X1805071514424001</t>
+  </si>
+  <si>
+    <t>X1804251701403337</t>
+  </si>
+  <si>
+    <t>X1805041654331042</t>
+  </si>
+  <si>
+    <t>X1808021017539350</t>
+  </si>
+  <si>
+    <t>X1805071516294136</t>
+  </si>
+  <si>
+    <t>X1806061549414449</t>
+  </si>
+  <si>
+    <t>X1808021624075995</t>
+  </si>
+  <si>
+    <t>X1805041700562202</t>
+  </si>
+  <si>
+    <t>X1804251715283926</t>
+  </si>
+  <si>
+    <t>X1806061432050177</t>
+  </si>
+  <si>
+    <t>X1803291350310040</t>
+  </si>
+  <si>
+    <t>X1808021021399938</t>
+  </si>
+  <si>
+    <t>X1803271625256898</t>
+  </si>
+  <si>
+    <t>X1804200847112563</t>
+  </si>
+  <si>
+    <t>X1806220854304035</t>
+  </si>
+  <si>
+    <t>X1805071509251720</t>
+  </si>
+  <si>
+    <t>X1805041756254677</t>
+  </si>
+  <si>
+    <t>X1804251659593183</t>
+  </si>
+  <si>
+    <t>X1804251711143786</t>
+  </si>
+  <si>
+    <t>X1805041659542128</t>
+  </si>
+  <si>
+    <t>X1804251032030518</t>
+  </si>
+  <si>
+    <t>X1804251719463986</t>
+  </si>
+  <si>
+    <t>X1805041656421639</t>
+  </si>
+  <si>
+    <t>X1803291052169150</t>
+  </si>
+  <si>
+    <t>X1805171125580253</t>
+  </si>
+  <si>
+    <t>X1805041720520069</t>
+  </si>
+  <si>
+    <t>X1808081050561380</t>
+  </si>
+  <si>
+    <t>X1803271108432837</t>
+  </si>
+  <si>
+    <t>X1804251004028497</t>
+  </si>
+  <si>
+    <t>X1804101010350250</t>
+  </si>
+  <si>
+    <t>X1808021019559739</t>
+  </si>
+  <si>
+    <t>X1805071518494207</t>
+  </si>
+  <si>
+    <t>X1803271111302849</t>
+  </si>
+  <si>
+    <t>X1803271620336801</t>
+  </si>
+  <si>
+    <t>X1804281459469119</t>
+  </si>
+  <si>
+    <t>X1804260902430835</t>
+  </si>
+  <si>
+    <t>X1806061445370272</t>
+  </si>
+  <si>
+    <t>X1804251350391129</t>
+  </si>
+  <si>
+    <t>X1804251716173962</t>
+  </si>
+  <si>
+    <t>X1806061455530042</t>
+  </si>
+  <si>
+    <t>X1803291708447360</t>
+  </si>
+  <si>
+    <t>X1803291703337337</t>
+  </si>
+  <si>
+    <t>X1805041706152580</t>
+  </si>
+  <si>
+    <t>X1805030932547144</t>
+  </si>
+  <si>
+    <t>X1804251009059019</t>
+  </si>
+  <si>
+    <t>X1804251006258798</t>
+  </si>
+  <si>
+    <t>X1804251013229582</t>
+  </si>
+  <si>
+    <t>X1803291039406478</t>
+  </si>
+  <si>
+    <t>X1804251706493643</t>
+  </si>
+  <si>
+    <t>X1806061442010257</t>
+  </si>
+  <si>
+    <t>X1808071554041430</t>
+  </si>
+  <si>
+    <t>X1805041721590189</t>
+  </si>
+  <si>
+    <t>X1804251722474001</t>
   </si>
 </sst>
 </file>
@@ -640,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,6 +1047,221 @@
         <v>59</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t>主键</t>
   </si>
@@ -110,244 +110,598 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1806061452020021</t>
-  </si>
-  <si>
-    <t>X1804251717093972</t>
-  </si>
-  <si>
-    <t>X1805041702222553</t>
-  </si>
-  <si>
-    <t>X1806191116292904</t>
-  </si>
-  <si>
-    <t>X1805031032537722</t>
-  </si>
-  <si>
-    <t>X1808021026290356</t>
-  </si>
-  <si>
-    <t>X1806211806065661</t>
-  </si>
-  <si>
-    <t>X1803271116313156</t>
-  </si>
-  <si>
-    <t>X1804261122483813</t>
-  </si>
-  <si>
-    <t>X1803271057182270</t>
-  </si>
-  <si>
-    <t>X1804251723564007</t>
-  </si>
-  <si>
-    <t>X1804240914230708</t>
-  </si>
-  <si>
-    <t>X1804251713113880</t>
-  </si>
-  <si>
-    <t>X1804251705133559</t>
-  </si>
-  <si>
-    <t>X1805071505511235</t>
-  </si>
-  <si>
-    <t>X1805071446520014</t>
-  </si>
-  <si>
-    <t>X1805181335023610</t>
-  </si>
-  <si>
-    <t>X1805041754564606</t>
-  </si>
-  <si>
-    <t>X1803291657036702</t>
-  </si>
-  <si>
-    <t>X1803271103312513</t>
-  </si>
-  <si>
-    <t>X1803271113392914</t>
-  </si>
-  <si>
-    <t>X1805041753134313</t>
-  </si>
-  <si>
-    <t>X1806061435100200</t>
-  </si>
-  <si>
-    <t>X1808021029170593</t>
-  </si>
-  <si>
-    <t>X1805030947177208</t>
-  </si>
-  <si>
-    <t>X1805041704342571</t>
-  </si>
-  <si>
-    <t>X1804251721343995</t>
-  </si>
-  <si>
-    <t>X1805071514424001</t>
-  </si>
-  <si>
-    <t>X1804251701403337</t>
-  </si>
-  <si>
-    <t>X1805041654331042</t>
-  </si>
-  <si>
-    <t>X1808021017539350</t>
-  </si>
-  <si>
-    <t>X1805071516294136</t>
-  </si>
-  <si>
-    <t>X1806061549414449</t>
-  </si>
-  <si>
-    <t>X1808021624075995</t>
-  </si>
-  <si>
-    <t>X1805041700562202</t>
-  </si>
-  <si>
-    <t>X1804251715283926</t>
-  </si>
-  <si>
-    <t>X1806061432050177</t>
-  </si>
-  <si>
-    <t>X1803291350310040</t>
-  </si>
-  <si>
-    <t>X1808021021399938</t>
-  </si>
-  <si>
-    <t>X1803271625256898</t>
-  </si>
-  <si>
-    <t>X1804200847112563</t>
-  </si>
-  <si>
-    <t>X1806220854304035</t>
-  </si>
-  <si>
-    <t>X1805071509251720</t>
-  </si>
-  <si>
-    <t>X1805041756254677</t>
-  </si>
-  <si>
-    <t>X1804251659593183</t>
-  </si>
-  <si>
-    <t>X1804251711143786</t>
-  </si>
-  <si>
-    <t>X1805041659542128</t>
-  </si>
-  <si>
-    <t>X1804251032030518</t>
-  </si>
-  <si>
-    <t>X1804251719463986</t>
-  </si>
-  <si>
-    <t>X1805041656421639</t>
-  </si>
-  <si>
-    <t>X1803291052169150</t>
-  </si>
-  <si>
-    <t>X1805171125580253</t>
-  </si>
-  <si>
-    <t>X1805041720520069</t>
-  </si>
-  <si>
-    <t>X1808081050561380</t>
-  </si>
-  <si>
-    <t>X1803271108432837</t>
-  </si>
-  <si>
-    <t>X1804251004028497</t>
-  </si>
-  <si>
-    <t>X1804101010350250</t>
-  </si>
-  <si>
-    <t>X1808021019559739</t>
-  </si>
-  <si>
-    <t>X1805071518494207</t>
-  </si>
-  <si>
-    <t>X1803271111302849</t>
-  </si>
-  <si>
-    <t>X1803271620336801</t>
-  </si>
-  <si>
-    <t>X1804281459469119</t>
-  </si>
-  <si>
-    <t>X1804260902430835</t>
-  </si>
-  <si>
-    <t>X1806061445370272</t>
-  </si>
-  <si>
-    <t>X1804251350391129</t>
-  </si>
-  <si>
-    <t>X1804251716173962</t>
-  </si>
-  <si>
-    <t>X1806061455530042</t>
-  </si>
-  <si>
-    <t>X1803291708447360</t>
-  </si>
-  <si>
-    <t>X1803291703337337</t>
-  </si>
-  <si>
-    <t>X1805041706152580</t>
-  </si>
-  <si>
-    <t>X1805030932547144</t>
-  </si>
-  <si>
-    <t>X1804251009059019</t>
-  </si>
-  <si>
-    <t>X1804251006258798</t>
-  </si>
-  <si>
-    <t>X1804251013229582</t>
-  </si>
-  <si>
-    <t>X1803291039406478</t>
-  </si>
-  <si>
-    <t>X1804251706493643</t>
-  </si>
-  <si>
-    <t>X1806061442010257</t>
-  </si>
-  <si>
-    <t>X1808071554041430</t>
-  </si>
-  <si>
-    <t>X1805041721590189</t>
-  </si>
-  <si>
-    <t>X1804251722474001</t>
+    <t>X1802051412060063</t>
+  </si>
+  <si>
+    <t>X1802051412290315</t>
+  </si>
+  <si>
+    <t>X1802051412410459</t>
+  </si>
+  <si>
+    <t>X1802051412220243</t>
+  </si>
+  <si>
+    <t>X1802051412020033</t>
+  </si>
+  <si>
+    <t>X1802051412130135</t>
+  </si>
+  <si>
+    <t>X1802051412090087</t>
+  </si>
+  <si>
+    <t>X1802051412150165</t>
+  </si>
+  <si>
+    <t>X1802051412210237</t>
+  </si>
+  <si>
+    <t>X1802051412430489</t>
+  </si>
+  <si>
+    <t>X1802051446180389</t>
+  </si>
+  <si>
+    <t>X1802051412020027</t>
+  </si>
+  <si>
+    <t>X1802051412360399</t>
+  </si>
+  <si>
+    <t>X1802051446120335</t>
+  </si>
+  <si>
+    <t>X1802051412070075</t>
+  </si>
+  <si>
+    <t>X1802051412180201</t>
+  </si>
+  <si>
+    <t>X1712200921130050</t>
+  </si>
+  <si>
+    <t>X1802051413040748</t>
+  </si>
+  <si>
+    <t>X1802051412110111</t>
+  </si>
+  <si>
+    <t>X1802051412120117</t>
+  </si>
+  <si>
+    <t>X1802051412310339</t>
+  </si>
+  <si>
+    <t>X1802051412190213</t>
+  </si>
+  <si>
+    <t>X1801291458180647</t>
+  </si>
+  <si>
+    <t>X1802051446150365</t>
+  </si>
+  <si>
+    <t>X1802051412570664</t>
+  </si>
+  <si>
+    <t>X1802051412590682</t>
+  </si>
+  <si>
+    <t>X1802051412520604</t>
+  </si>
+  <si>
+    <t>X1802051412540622</t>
+  </si>
+  <si>
+    <t>X1802051412140153</t>
+  </si>
+  <si>
+    <t>X1802051412150159</t>
+  </si>
+  <si>
+    <t>X1802051412590688</t>
+  </si>
+  <si>
+    <t>X1802051438250147</t>
+  </si>
+  <si>
+    <t>X1802051412460519</t>
+  </si>
+  <si>
+    <t>X1802051412290309</t>
+  </si>
+  <si>
+    <t>X1802051412350387</t>
+  </si>
+  <si>
+    <t>X1802051412160177</t>
+  </si>
+  <si>
+    <t>X1802051412190207</t>
+  </si>
+  <si>
+    <t>X1802051412250273</t>
+  </si>
+  <si>
+    <t>X1802051412380429</t>
+  </si>
+  <si>
+    <t>X1802051412160171</t>
+  </si>
+  <si>
+    <t>X1802051412390435</t>
+  </si>
+  <si>
+    <t>X1802051412200225</t>
+  </si>
+  <si>
+    <t>X1802051438320243</t>
+  </si>
+  <si>
+    <t>X1802051412120123</t>
+  </si>
+  <si>
+    <t>X1802051446020245</t>
+  </si>
+  <si>
+    <t>X1802051412210231</t>
+  </si>
+  <si>
+    <t>X1802051412420471</t>
+  </si>
+  <si>
+    <t>X1802051412130129</t>
+  </si>
+  <si>
+    <t>X1802051412480549</t>
+  </si>
+  <si>
+    <t>X1802051445590221</t>
+  </si>
+  <si>
+    <t>X1802051446150359</t>
+  </si>
+  <si>
+    <t>X1802051413060778</t>
+  </si>
+  <si>
+    <t>X1802051412220249</t>
+  </si>
+  <si>
+    <t>X1802051446190401</t>
+  </si>
+  <si>
+    <t>X1802051413060772</t>
+  </si>
+  <si>
+    <t>X1802051412370411</t>
+  </si>
+  <si>
+    <t>X1802051412260279</t>
+  </si>
+  <si>
+    <t>X1802051445560185</t>
+  </si>
+  <si>
+    <t>X1802051412200219</t>
+  </si>
+  <si>
+    <t>X1802051412500573</t>
+  </si>
+  <si>
+    <t>X1802051412170189</t>
+  </si>
+  <si>
+    <t>X1802051412430483</t>
+  </si>
+  <si>
+    <t>X1802051412030045</t>
+  </si>
+  <si>
+    <t>X1802051412330363</t>
+  </si>
+  <si>
+    <t>X1802051412340369</t>
+  </si>
+  <si>
+    <t>X1802051446110329</t>
+  </si>
+  <si>
+    <t>X1802051412320345</t>
+  </si>
+  <si>
+    <t>X1802051412360405</t>
+  </si>
+  <si>
+    <t>X1802051446160371</t>
+  </si>
+  <si>
+    <t>X1802051412340375</t>
+  </si>
+  <si>
+    <t>X1802051412550634</t>
+  </si>
+  <si>
+    <t>X1802051412530616</t>
+  </si>
+  <si>
+    <t>X1802051413050766</t>
+  </si>
+  <si>
+    <t>X1802051438260165</t>
+  </si>
+  <si>
+    <t>X1802051412230261</t>
+  </si>
+  <si>
+    <t>X1802051412030039</t>
+  </si>
+  <si>
+    <t>X1802051446090311</t>
+  </si>
+  <si>
+    <t>X1802051412420477</t>
+  </si>
+  <si>
+    <t>X1802051446040263</t>
+  </si>
+  <si>
+    <t>X1802051438250153</t>
+  </si>
+  <si>
+    <t>X1802051446080305</t>
+  </si>
+  <si>
+    <t>X1802051412450513</t>
+  </si>
+  <si>
+    <t>X1802051438310225</t>
+  </si>
+  <si>
+    <t>X1802051445580209</t>
+  </si>
+  <si>
+    <t>X1802051412280297</t>
+  </si>
+  <si>
+    <t>X1802051438240141</t>
+  </si>
+  <si>
+    <t>X1802051445070155</t>
+  </si>
+  <si>
+    <t>X1802051446130341</t>
+  </si>
+  <si>
+    <t>X1802051412560652</t>
+  </si>
+  <si>
+    <t>X1802051412000002</t>
+  </si>
+  <si>
+    <t>X1802051412080081</t>
+  </si>
+  <si>
+    <t>X1802051412580670</t>
+  </si>
+  <si>
+    <t>X1802051412400453</t>
+  </si>
+  <si>
+    <t>X1802051412330357</t>
+  </si>
+  <si>
+    <t>X1802051412510580</t>
+  </si>
+  <si>
+    <t>X1802051412510586</t>
+  </si>
+  <si>
+    <t>X1802051438260171</t>
+  </si>
+  <si>
+    <t>X1802051412580676</t>
+  </si>
+  <si>
+    <t>X1802051412310333</t>
+  </si>
+  <si>
+    <t>X1802051412470537</t>
+  </si>
+  <si>
+    <t>X1801160903320075</t>
+  </si>
+  <si>
+    <t>X1802051413020718</t>
+  </si>
+  <si>
+    <t>X1810221024251683</t>
+  </si>
+  <si>
+    <t>X1802051412320351</t>
+  </si>
+  <si>
+    <t>X1802051446130347</t>
+  </si>
+  <si>
+    <t>X1802051412040051</t>
+  </si>
+  <si>
+    <t>X1802051412140141</t>
+  </si>
+  <si>
+    <t>X1802051413040742</t>
+  </si>
+  <si>
+    <t>X1802051413030736</t>
+  </si>
+  <si>
+    <t>X1802051412100099</t>
+  </si>
+  <si>
+    <t>X1802051413010712</t>
+  </si>
+  <si>
+    <t>X1802051413020724</t>
+  </si>
+  <si>
+    <t>X1802051412390441</t>
+  </si>
+  <si>
+    <t>X1802051412410465</t>
+  </si>
+  <si>
+    <t>X1802051446070293</t>
+  </si>
+  <si>
+    <t>X1802051446140353</t>
+  </si>
+  <si>
+    <t>X1802051413000700</t>
+  </si>
+  <si>
+    <t>X1802051413050760</t>
+  </si>
+  <si>
+    <t>X1802051412540628</t>
+  </si>
+  <si>
+    <t>X1802051412250267</t>
+  </si>
+  <si>
+    <t>X1802051413070784</t>
+  </si>
+  <si>
+    <t>X1802051413070790</t>
+  </si>
+  <si>
+    <t>X1802051412490561</t>
+  </si>
+  <si>
+    <t>X1802051438230135</t>
+  </si>
+  <si>
+    <t>X1802051446100323</t>
+  </si>
+  <si>
+    <t>X1802051412550640</t>
+  </si>
+  <si>
+    <t>X1802051412520592</t>
+  </si>
+  <si>
+    <t>X1802051412100093</t>
+  </si>
+  <si>
+    <t>X1802051446170383</t>
+  </si>
+  <si>
+    <t>X1802051412220255</t>
+  </si>
+  <si>
+    <t>X1802051412520598</t>
+  </si>
+  <si>
+    <t>X1802051446100317</t>
+  </si>
+  <si>
+    <t>X1802051438250159</t>
+  </si>
+  <si>
+    <t>X1802051438270177</t>
+  </si>
+  <si>
+    <t>X1802051446030251</t>
+  </si>
+  <si>
+    <t>X1802051412270291</t>
+  </si>
+  <si>
+    <t>X1802051412110105</t>
+  </si>
+  <si>
+    <t>X1802051438280195</t>
+  </si>
+  <si>
+    <t>X1802051438300213</t>
+  </si>
+  <si>
+    <t>X1802051438290207</t>
+  </si>
+  <si>
+    <t>X1802051412010015</t>
+  </si>
+  <si>
+    <t>X1802051446050269</t>
+  </si>
+  <si>
+    <t>X1802051446060287</t>
+  </si>
+  <si>
+    <t>X1802051438310231</t>
+  </si>
+  <si>
+    <t>X1802051412300327</t>
+  </si>
+  <si>
+    <t>X1802051438310237</t>
+  </si>
+  <si>
+    <t>X1802051412050057</t>
+  </si>
+  <si>
+    <t>X1802051446200407</t>
+  </si>
+  <si>
+    <t>X1802051412300321</t>
+  </si>
+  <si>
+    <t>X1802051412270285</t>
+  </si>
+  <si>
+    <t>X1802051413000694</t>
+  </si>
+  <si>
+    <t>X1802051412530610</t>
+  </si>
+  <si>
+    <t>X1802051446170377</t>
+  </si>
+  <si>
+    <t>X1802051446060281</t>
+  </si>
+  <si>
+    <t>X1802051446050275</t>
+  </si>
+  <si>
+    <t>X1802051412000008</t>
+  </si>
+  <si>
+    <t>X1802051412560646</t>
+  </si>
+  <si>
+    <t>X1802051446030257</t>
+  </si>
+  <si>
+    <t>X1802051446000227</t>
+  </si>
+  <si>
+    <t>X1802051446010233</t>
+  </si>
+  <si>
+    <t>X1802051412180195</t>
+  </si>
+  <si>
+    <t>X1802051446010239</t>
+  </si>
+  <si>
+    <t>X1802051412140147</t>
+  </si>
+  <si>
+    <t>X1802051445590215</t>
+  </si>
+  <si>
+    <t>X1802051412480543</t>
+  </si>
+  <si>
+    <t>X1802051412380417</t>
+  </si>
+  <si>
+    <t>X1802051412450507</t>
+  </si>
+  <si>
+    <t>X1802051446210413</t>
+  </si>
+  <si>
+    <t>X1802051446080299</t>
+  </si>
+  <si>
+    <t>X1802051412470531</t>
+  </si>
+  <si>
+    <t>X1802051412170183</t>
+  </si>
+  <si>
+    <t>X1802051445580203</t>
+  </si>
+  <si>
+    <t>X1802051412340381</t>
+  </si>
+  <si>
+    <t>X1802051412070069</t>
+  </si>
+  <si>
+    <t>X1802051445500167</t>
+  </si>
+  <si>
+    <t>X1802051445420161</t>
+  </si>
+  <si>
+    <t>X1802051412400447</t>
+  </si>
+  <si>
+    <t>X1802051412440495</t>
+  </si>
+  <si>
+    <t>X1802051446190395</t>
+  </si>
+  <si>
+    <t>X1802051412460525</t>
+  </si>
+  <si>
+    <t>X1802051438280189</t>
+  </si>
+  <si>
+    <t>X1802051413050754</t>
+  </si>
+  <si>
+    <t>X1802051412360393</t>
+  </si>
+  <si>
+    <t>X1802051412010021</t>
+  </si>
+  <si>
+    <t>X1802051412280303</t>
+  </si>
+  <si>
+    <t>X1802051438290201</t>
+  </si>
+  <si>
+    <t>X1802051445550179</t>
+  </si>
+  <si>
+    <t>X1802051438270183</t>
+  </si>
+  <si>
+    <t>X1802051438300219</t>
+  </si>
+  <si>
+    <t>X1802051412440501</t>
+  </si>
+  <si>
+    <t>X1802051445560191</t>
+  </si>
+  <si>
+    <t>X1802051445570197</t>
+  </si>
+  <si>
+    <t>X1802051412380423</t>
+  </si>
+  <si>
+    <t>X1802051412500567</t>
+  </si>
+  <si>
+    <t>X1802051413010706</t>
+  </si>
+  <si>
+    <t>X1802051412490555</t>
+  </si>
+  <si>
+    <t>X1802051413030730</t>
+  </si>
+  <si>
+    <t>X1802051412570658</t>
   </si>
 </sst>
 </file>
@@ -769,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:W199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,6 +1616,596 @@
         <v>102</v>
       </c>
     </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t>主键</t>
   </si>
@@ -110,598 +110,1339 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1802051412060063</t>
-  </si>
-  <si>
-    <t>X1802051412290315</t>
-  </si>
-  <si>
-    <t>X1802051412410459</t>
-  </si>
-  <si>
-    <t>X1802051412220243</t>
-  </si>
-  <si>
-    <t>X1802051412020033</t>
-  </si>
-  <si>
-    <t>X1802051412130135</t>
-  </si>
-  <si>
-    <t>X1802051412090087</t>
-  </si>
-  <si>
-    <t>X1802051412150165</t>
-  </si>
-  <si>
-    <t>X1802051412210237</t>
-  </si>
-  <si>
-    <t>X1802051412430489</t>
-  </si>
-  <si>
-    <t>X1802051446180389</t>
-  </si>
-  <si>
-    <t>X1802051412020027</t>
-  </si>
-  <si>
-    <t>X1802051412360399</t>
-  </si>
-  <si>
-    <t>X1802051446120335</t>
-  </si>
-  <si>
-    <t>X1802051412070075</t>
-  </si>
-  <si>
-    <t>X1802051412180201</t>
-  </si>
-  <si>
-    <t>X1712200921130050</t>
-  </si>
-  <si>
-    <t>X1802051413040748</t>
-  </si>
-  <si>
-    <t>X1802051412110111</t>
-  </si>
-  <si>
-    <t>X1802051412120117</t>
-  </si>
-  <si>
-    <t>X1802051412310339</t>
-  </si>
-  <si>
-    <t>X1802051412190213</t>
-  </si>
-  <si>
-    <t>X1801291458180647</t>
-  </si>
-  <si>
-    <t>X1802051446150365</t>
-  </si>
-  <si>
-    <t>X1802051412570664</t>
-  </si>
-  <si>
-    <t>X1802051412590682</t>
-  </si>
-  <si>
-    <t>X1802051412520604</t>
-  </si>
-  <si>
-    <t>X1802051412540622</t>
-  </si>
-  <si>
-    <t>X1802051412140153</t>
-  </si>
-  <si>
-    <t>X1802051412150159</t>
-  </si>
-  <si>
-    <t>X1802051412590688</t>
-  </si>
-  <si>
-    <t>X1802051438250147</t>
-  </si>
-  <si>
-    <t>X1802051412460519</t>
-  </si>
-  <si>
-    <t>X1802051412290309</t>
-  </si>
-  <si>
-    <t>X1802051412350387</t>
-  </si>
-  <si>
-    <t>X1802051412160177</t>
-  </si>
-  <si>
-    <t>X1802051412190207</t>
-  </si>
-  <si>
-    <t>X1802051412250273</t>
-  </si>
-  <si>
-    <t>X1802051412380429</t>
-  </si>
-  <si>
-    <t>X1802051412160171</t>
-  </si>
-  <si>
-    <t>X1802051412390435</t>
-  </si>
-  <si>
-    <t>X1802051412200225</t>
-  </si>
-  <si>
-    <t>X1802051438320243</t>
-  </si>
-  <si>
-    <t>X1802051412120123</t>
-  </si>
-  <si>
-    <t>X1802051446020245</t>
-  </si>
-  <si>
-    <t>X1802051412210231</t>
-  </si>
-  <si>
-    <t>X1802051412420471</t>
-  </si>
-  <si>
-    <t>X1802051412130129</t>
-  </si>
-  <si>
-    <t>X1802051412480549</t>
-  </si>
-  <si>
-    <t>X1802051445590221</t>
-  </si>
-  <si>
-    <t>X1802051446150359</t>
-  </si>
-  <si>
-    <t>X1802051413060778</t>
-  </si>
-  <si>
-    <t>X1802051412220249</t>
-  </si>
-  <si>
-    <t>X1802051446190401</t>
-  </si>
-  <si>
-    <t>X1802051413060772</t>
-  </si>
-  <si>
-    <t>X1802051412370411</t>
-  </si>
-  <si>
-    <t>X1802051412260279</t>
-  </si>
-  <si>
-    <t>X1802051445560185</t>
-  </si>
-  <si>
-    <t>X1802051412200219</t>
-  </si>
-  <si>
-    <t>X1802051412500573</t>
-  </si>
-  <si>
-    <t>X1802051412170189</t>
-  </si>
-  <si>
-    <t>X1802051412430483</t>
-  </si>
-  <si>
-    <t>X1802051412030045</t>
-  </si>
-  <si>
-    <t>X1802051412330363</t>
-  </si>
-  <si>
-    <t>X1802051412340369</t>
-  </si>
-  <si>
-    <t>X1802051446110329</t>
-  </si>
-  <si>
-    <t>X1802051412320345</t>
-  </si>
-  <si>
-    <t>X1802051412360405</t>
-  </si>
-  <si>
-    <t>X1802051446160371</t>
-  </si>
-  <si>
-    <t>X1802051412340375</t>
-  </si>
-  <si>
-    <t>X1802051412550634</t>
-  </si>
-  <si>
-    <t>X1802051412530616</t>
-  </si>
-  <si>
-    <t>X1802051413050766</t>
-  </si>
-  <si>
-    <t>X1802051438260165</t>
-  </si>
-  <si>
-    <t>X1802051412230261</t>
-  </si>
-  <si>
-    <t>X1802051412030039</t>
-  </si>
-  <si>
-    <t>X1802051446090311</t>
-  </si>
-  <si>
-    <t>X1802051412420477</t>
-  </si>
-  <si>
-    <t>X1802051446040263</t>
-  </si>
-  <si>
-    <t>X1802051438250153</t>
-  </si>
-  <si>
-    <t>X1802051446080305</t>
-  </si>
-  <si>
-    <t>X1802051412450513</t>
-  </si>
-  <si>
-    <t>X1802051438310225</t>
-  </si>
-  <si>
-    <t>X1802051445580209</t>
-  </si>
-  <si>
-    <t>X1802051412280297</t>
-  </si>
-  <si>
-    <t>X1802051438240141</t>
-  </si>
-  <si>
-    <t>X1802051445070155</t>
-  </si>
-  <si>
-    <t>X1802051446130341</t>
-  </si>
-  <si>
-    <t>X1802051412560652</t>
-  </si>
-  <si>
-    <t>X1802051412000002</t>
-  </si>
-  <si>
-    <t>X1802051412080081</t>
-  </si>
-  <si>
-    <t>X1802051412580670</t>
-  </si>
-  <si>
-    <t>X1802051412400453</t>
-  </si>
-  <si>
-    <t>X1802051412330357</t>
-  </si>
-  <si>
-    <t>X1802051412510580</t>
-  </si>
-  <si>
-    <t>X1802051412510586</t>
-  </si>
-  <si>
-    <t>X1802051438260171</t>
-  </si>
-  <si>
-    <t>X1802051412580676</t>
-  </si>
-  <si>
-    <t>X1802051412310333</t>
-  </si>
-  <si>
-    <t>X1802051412470537</t>
-  </si>
-  <si>
-    <t>X1801160903320075</t>
-  </si>
-  <si>
-    <t>X1802051413020718</t>
-  </si>
-  <si>
-    <t>X1810221024251683</t>
-  </si>
-  <si>
-    <t>X1802051412320351</t>
-  </si>
-  <si>
-    <t>X1802051446130347</t>
-  </si>
-  <si>
-    <t>X1802051412040051</t>
-  </si>
-  <si>
-    <t>X1802051412140141</t>
-  </si>
-  <si>
-    <t>X1802051413040742</t>
-  </si>
-  <si>
-    <t>X1802051413030736</t>
-  </si>
-  <si>
-    <t>X1802051412100099</t>
-  </si>
-  <si>
-    <t>X1802051413010712</t>
-  </si>
-  <si>
-    <t>X1802051413020724</t>
-  </si>
-  <si>
-    <t>X1802051412390441</t>
-  </si>
-  <si>
-    <t>X1802051412410465</t>
-  </si>
-  <si>
-    <t>X1802051446070293</t>
-  </si>
-  <si>
-    <t>X1802051446140353</t>
-  </si>
-  <si>
-    <t>X1802051413000700</t>
-  </si>
-  <si>
-    <t>X1802051413050760</t>
-  </si>
-  <si>
-    <t>X1802051412540628</t>
-  </si>
-  <si>
-    <t>X1802051412250267</t>
-  </si>
-  <si>
-    <t>X1802051413070784</t>
-  </si>
-  <si>
-    <t>X1802051413070790</t>
-  </si>
-  <si>
-    <t>X1802051412490561</t>
-  </si>
-  <si>
-    <t>X1802051438230135</t>
-  </si>
-  <si>
-    <t>X1802051446100323</t>
-  </si>
-  <si>
-    <t>X1802051412550640</t>
-  </si>
-  <si>
-    <t>X1802051412520592</t>
-  </si>
-  <si>
-    <t>X1802051412100093</t>
-  </si>
-  <si>
-    <t>X1802051446170383</t>
-  </si>
-  <si>
-    <t>X1802051412220255</t>
-  </si>
-  <si>
-    <t>X1802051412520598</t>
-  </si>
-  <si>
-    <t>X1802051446100317</t>
-  </si>
-  <si>
-    <t>X1802051438250159</t>
-  </si>
-  <si>
-    <t>X1802051438270177</t>
-  </si>
-  <si>
-    <t>X1802051446030251</t>
-  </si>
-  <si>
-    <t>X1802051412270291</t>
-  </si>
-  <si>
-    <t>X1802051412110105</t>
-  </si>
-  <si>
-    <t>X1802051438280195</t>
-  </si>
-  <si>
-    <t>X1802051438300213</t>
-  </si>
-  <si>
-    <t>X1802051438290207</t>
-  </si>
-  <si>
-    <t>X1802051412010015</t>
-  </si>
-  <si>
-    <t>X1802051446050269</t>
-  </si>
-  <si>
-    <t>X1802051446060287</t>
-  </si>
-  <si>
-    <t>X1802051438310231</t>
-  </si>
-  <si>
-    <t>X1802051412300327</t>
-  </si>
-  <si>
-    <t>X1802051438310237</t>
-  </si>
-  <si>
-    <t>X1802051412050057</t>
-  </si>
-  <si>
-    <t>X1802051446200407</t>
-  </si>
-  <si>
-    <t>X1802051412300321</t>
-  </si>
-  <si>
-    <t>X1802051412270285</t>
-  </si>
-  <si>
-    <t>X1802051413000694</t>
-  </si>
-  <si>
-    <t>X1802051412530610</t>
-  </si>
-  <si>
-    <t>X1802051446170377</t>
-  </si>
-  <si>
-    <t>X1802051446060281</t>
-  </si>
-  <si>
-    <t>X1802051446050275</t>
-  </si>
-  <si>
-    <t>X1802051412000008</t>
-  </si>
-  <si>
-    <t>X1802051412560646</t>
-  </si>
-  <si>
-    <t>X1802051446030257</t>
-  </si>
-  <si>
-    <t>X1802051446000227</t>
-  </si>
-  <si>
-    <t>X1802051446010233</t>
-  </si>
-  <si>
-    <t>X1802051412180195</t>
-  </si>
-  <si>
-    <t>X1802051446010239</t>
-  </si>
-  <si>
-    <t>X1802051412140147</t>
-  </si>
-  <si>
-    <t>X1802051445590215</t>
-  </si>
-  <si>
-    <t>X1802051412480543</t>
-  </si>
-  <si>
-    <t>X1802051412380417</t>
-  </si>
-  <si>
-    <t>X1802051412450507</t>
-  </si>
-  <si>
-    <t>X1802051446210413</t>
-  </si>
-  <si>
-    <t>X1802051446080299</t>
-  </si>
-  <si>
-    <t>X1802051412470531</t>
-  </si>
-  <si>
-    <t>X1802051412170183</t>
-  </si>
-  <si>
-    <t>X1802051445580203</t>
-  </si>
-  <si>
-    <t>X1802051412340381</t>
-  </si>
-  <si>
-    <t>X1802051412070069</t>
-  </si>
-  <si>
-    <t>X1802051445500167</t>
-  </si>
-  <si>
-    <t>X1802051445420161</t>
-  </si>
-  <si>
-    <t>X1802051412400447</t>
-  </si>
-  <si>
-    <t>X1802051412440495</t>
-  </si>
-  <si>
-    <t>X1802051446190395</t>
-  </si>
-  <si>
-    <t>X1802051412460525</t>
-  </si>
-  <si>
-    <t>X1802051438280189</t>
-  </si>
-  <si>
-    <t>X1802051413050754</t>
-  </si>
-  <si>
-    <t>X1802051412360393</t>
-  </si>
-  <si>
-    <t>X1802051412010021</t>
-  </si>
-  <si>
-    <t>X1802051412280303</t>
-  </si>
-  <si>
-    <t>X1802051438290201</t>
-  </si>
-  <si>
-    <t>X1802051445550179</t>
-  </si>
-  <si>
-    <t>X1802051438270183</t>
-  </si>
-  <si>
-    <t>X1802051438300219</t>
-  </si>
-  <si>
-    <t>X1802051412440501</t>
-  </si>
-  <si>
-    <t>X1802051445560191</t>
-  </si>
-  <si>
-    <t>X1802051445570197</t>
-  </si>
-  <si>
-    <t>X1802051412380423</t>
-  </si>
-  <si>
-    <t>X1802051412500567</t>
-  </si>
-  <si>
-    <t>X1802051413010706</t>
-  </si>
-  <si>
-    <t>X1802051412490555</t>
-  </si>
-  <si>
-    <t>X1802051413030730</t>
-  </si>
-  <si>
-    <t>X1802051412570658</t>
+    <t>X1808141105543019</t>
+  </si>
+  <si>
+    <t>X1808151409599700</t>
+  </si>
+  <si>
+    <t>X1804281856372795</t>
+  </si>
+  <si>
+    <t>X1805290917540449</t>
+  </si>
+  <si>
+    <t>X1804101543144723</t>
+  </si>
+  <si>
+    <t>X1809121519050008</t>
+  </si>
+  <si>
+    <t>X1808150921577807</t>
+  </si>
+  <si>
+    <t>X1809131754341731</t>
+  </si>
+  <si>
+    <t>X1807271426396896</t>
+  </si>
+  <si>
+    <t>X1808220933460832</t>
+  </si>
+  <si>
+    <t>X1810191019170404</t>
+  </si>
+  <si>
+    <t>X1805301226280144</t>
+  </si>
+  <si>
+    <t>X1809281417418982</t>
+  </si>
+  <si>
+    <t>X1805281743041483</t>
+  </si>
+  <si>
+    <t>X1805241051030759</t>
+  </si>
+  <si>
+    <t>X1809281423290685</t>
+  </si>
+  <si>
+    <t>X1805281746499797</t>
+  </si>
+  <si>
+    <t>X1808171102512885</t>
+  </si>
+  <si>
+    <t>X1807100859149548</t>
+  </si>
+  <si>
+    <t>X1805311750326012</t>
+  </si>
+  <si>
+    <t>X1806011402368086</t>
+  </si>
+  <si>
+    <t>X1804111349403940</t>
+  </si>
+  <si>
+    <t>X1810191740257745</t>
+  </si>
+  <si>
+    <t>X1809261634500190</t>
+  </si>
+  <si>
+    <t>X1810181815500309</t>
+  </si>
+  <si>
+    <t>X1808161034032011</t>
+  </si>
+  <si>
+    <t>X1806081820222486</t>
+  </si>
+  <si>
+    <t>X1804181452251226</t>
+  </si>
+  <si>
+    <t>X1808221617081619</t>
+  </si>
+  <si>
+    <t>X1808201351351433</t>
+  </si>
+  <si>
+    <t>X1810191743527836</t>
+  </si>
+  <si>
+    <t>X1806121650333549</t>
+  </si>
+  <si>
+    <t>X1808211508132616</t>
+  </si>
+  <si>
+    <t>X1808021257472941</t>
+  </si>
+  <si>
+    <t>X1808161233432826</t>
+  </si>
+  <si>
+    <t>X1804101051480380</t>
+  </si>
+  <si>
+    <t>X1804101057490047</t>
+  </si>
+  <si>
+    <t>X1808211142571875</t>
+  </si>
+  <si>
+    <t>X1804121833116584</t>
+  </si>
+  <si>
+    <t>X1809141358076843</t>
+  </si>
+  <si>
+    <t>X1810191730507445</t>
+  </si>
+  <si>
+    <t>X1808141346581281</t>
+  </si>
+  <si>
+    <t>X1810221150012916</t>
+  </si>
+  <si>
+    <t>X1805141910271303</t>
+  </si>
+  <si>
+    <t>X1807121745062514</t>
+  </si>
+  <si>
+    <t>X1810191710145830</t>
+  </si>
+  <si>
+    <t>X1809261629160091</t>
+  </si>
+  <si>
+    <t>X1804231703110230</t>
+  </si>
+  <si>
+    <t>X1808161059462276</t>
+  </si>
+  <si>
+    <t>X1805141912151321</t>
+  </si>
+  <si>
+    <t>X1805281152230333</t>
+  </si>
+  <si>
+    <t>X1807061501316195</t>
+  </si>
+  <si>
+    <t>X1805230917536145</t>
+  </si>
+  <si>
+    <t>X1805141915291361</t>
+  </si>
+  <si>
+    <t>X1805241133255624</t>
+  </si>
+  <si>
+    <t>X1804161406090930</t>
+  </si>
+  <si>
+    <t>X1805031548462502</t>
+  </si>
+  <si>
+    <t>X1808201501211654</t>
+  </si>
+  <si>
+    <t>X1810171007040153</t>
+  </si>
+  <si>
+    <t>X1809101537332721</t>
+  </si>
+  <si>
+    <t>X1808141739113974</t>
+  </si>
+  <si>
+    <t>X1809261413302607</t>
+  </si>
+  <si>
+    <t>X1805141908411289</t>
+  </si>
+  <si>
+    <t>X1804101055140017</t>
+  </si>
+  <si>
+    <t>X1808161105192362</t>
+  </si>
+  <si>
+    <t>X1810301039010111</t>
+  </si>
+  <si>
+    <t>X1808201133380556</t>
+  </si>
+  <si>
+    <t>X1808161137072636</t>
+  </si>
+  <si>
+    <t>X1805041725430477</t>
+  </si>
+  <si>
+    <t>X1805081724005716</t>
+  </si>
+  <si>
+    <t>X1809261406032362</t>
+  </si>
+  <si>
+    <t>X1808161513073452</t>
+  </si>
+  <si>
+    <t>X1805241048330745</t>
+  </si>
+  <si>
+    <t>X1804231910547032</t>
+  </si>
+  <si>
+    <t>X1809131753001711</t>
+  </si>
+  <si>
+    <t>X1808211008081105</t>
+  </si>
+  <si>
+    <t>X1810221153542964</t>
+  </si>
+  <si>
+    <t>X1804130853178395</t>
+  </si>
+  <si>
+    <t>X1804231149411769</t>
+  </si>
+  <si>
+    <t>X1804171451130081</t>
+  </si>
+  <si>
+    <t>X1808161200562766</t>
+  </si>
+  <si>
+    <t>X1807251652342348</t>
+  </si>
+  <si>
+    <t>X1807201717455930</t>
+  </si>
+  <si>
+    <t>X1807201029209029</t>
+  </si>
+  <si>
+    <t>X1807181446192946</t>
+  </si>
+  <si>
+    <t>X1805241024490521</t>
+  </si>
+  <si>
+    <t>X1804101545154765</t>
+  </si>
+  <si>
+    <t>X1805241040310718</t>
+  </si>
+  <si>
+    <t>X1804231632169898</t>
+  </si>
+  <si>
+    <t>X1809281409087379</t>
+  </si>
+  <si>
+    <t>X1804181551531614</t>
+  </si>
+  <si>
+    <t>X1804091648181664</t>
+  </si>
+  <si>
+    <t>X1808220930360779</t>
+  </si>
+  <si>
+    <t>X1809140921429515</t>
+  </si>
+  <si>
+    <t>X1808220908420258</t>
+  </si>
+  <si>
+    <t>X1804111046286161</t>
+  </si>
+  <si>
+    <t>X1804241614059201</t>
+  </si>
+  <si>
+    <t>X1810221159103013</t>
+  </si>
+  <si>
+    <t>X1804091452260962</t>
+  </si>
+  <si>
+    <t>X1810301041550179</t>
+  </si>
+  <si>
+    <t>X1808141744333995</t>
+  </si>
+  <si>
+    <t>X1808061128292737</t>
+  </si>
+  <si>
+    <t>X1808161225342807</t>
+  </si>
+  <si>
+    <t>X1809051006597480</t>
+  </si>
+  <si>
+    <t>X1806121138005336</t>
+  </si>
+  <si>
+    <t>X1807271137498734</t>
+  </si>
+  <si>
+    <t>X1804101111231051</t>
+  </si>
+  <si>
+    <t>X1808281508427903</t>
+  </si>
+  <si>
+    <t>X1804201119106244</t>
+  </si>
+  <si>
+    <t>X1804091554481000</t>
+  </si>
+  <si>
+    <t>X1807021436302688</t>
+  </si>
+  <si>
+    <t>X1804231622549813</t>
+  </si>
+  <si>
+    <t>X1806010917561242</t>
+  </si>
+  <si>
+    <t>X1804101047580338</t>
+  </si>
+  <si>
+    <t>X1809281419069299</t>
+  </si>
+  <si>
+    <t>X1807161723280122</t>
+  </si>
+  <si>
+    <t>X1804281608539332</t>
+  </si>
+  <si>
+    <t>X1808231711577411</t>
+  </si>
+  <si>
+    <t>X1808161103052340</t>
+  </si>
+  <si>
+    <t>X1804101602325366</t>
+  </si>
+  <si>
+    <t>X1805141904251223</t>
+  </si>
+  <si>
+    <t>X1809281447410973</t>
+  </si>
+  <si>
+    <t>X1804160957220104</t>
+  </si>
+  <si>
+    <t>X1808311455227413</t>
+  </si>
+  <si>
+    <t>X1804191426575620</t>
+  </si>
+  <si>
+    <t>X1808210945181019</t>
+  </si>
+  <si>
+    <t>X1808151423189778</t>
+  </si>
+  <si>
+    <t>X1807251802087318</t>
+  </si>
+  <si>
+    <t>X1804231908176541</t>
+  </si>
+  <si>
+    <t>X1804101600164946</t>
+  </si>
+  <si>
+    <t>X1808150936507898</t>
+  </si>
+  <si>
+    <t>X1808161113522465</t>
+  </si>
+  <si>
+    <t>X1809261631430127</t>
+  </si>
+  <si>
+    <t>X1809131750411678</t>
+  </si>
+  <si>
+    <t>X1808311739148938</t>
+  </si>
+  <si>
+    <t>X1804120901070072</t>
+  </si>
+  <si>
+    <t>X1809261624130018</t>
+  </si>
+  <si>
+    <t>X1808161145192677</t>
+  </si>
+  <si>
+    <t>X1808221605371475</t>
+  </si>
+  <si>
+    <t>X1807251752446965</t>
+  </si>
+  <si>
+    <t>X1804091749022301</t>
+  </si>
+  <si>
+    <t>X1804161054210029</t>
+  </si>
+  <si>
+    <t>X1808141109563378</t>
+  </si>
+  <si>
+    <t>X1808161100362317</t>
+  </si>
+  <si>
+    <t>X1804121104480197</t>
+  </si>
+  <si>
+    <t>X1805221434163623</t>
+  </si>
+  <si>
+    <t>X1804281829312125</t>
+  </si>
+  <si>
+    <t>X1805310955560122</t>
+  </si>
+  <si>
+    <t>X1808161052572194</t>
+  </si>
+  <si>
+    <t>X1808221113240362</t>
+  </si>
+  <si>
+    <t>X1804281855232781</t>
+  </si>
+  <si>
+    <t>X1804281849472748</t>
+  </si>
+  <si>
+    <t>X1809121505050469</t>
+  </si>
+  <si>
+    <t>X1809121503070441</t>
+  </si>
+  <si>
+    <t>X1809281443000019</t>
+  </si>
+  <si>
+    <t>X1808021522170001</t>
+  </si>
+  <si>
+    <t>X1810221546124510</t>
+  </si>
+  <si>
+    <t>X1810291129030966</t>
+  </si>
+  <si>
+    <t>X1808161112242410</t>
+  </si>
+  <si>
+    <t>X1809101555422810</t>
+  </si>
+  <si>
+    <t>X1810181813039870</t>
+  </si>
+  <si>
+    <t>X1808161107262381</t>
+  </si>
+  <si>
+    <t>X1808141756284036</t>
+  </si>
+  <si>
+    <t>X1808231519087762</t>
+  </si>
+  <si>
+    <t>X1805211807130274</t>
+  </si>
+  <si>
+    <t>X1807260852234009</t>
+  </si>
+  <si>
+    <t>X1808211526342809</t>
+  </si>
+  <si>
+    <t>X1809281420379802</t>
+  </si>
+  <si>
+    <t>X1807100914312545</t>
+  </si>
+  <si>
+    <t>X1806051508487016</t>
+  </si>
+  <si>
+    <t>X1807101442264022</t>
+  </si>
+  <si>
+    <t>X1808151413569722</t>
+  </si>
+  <si>
+    <t>X1804091359540360</t>
+  </si>
+  <si>
+    <t>X1810191738447692</t>
+  </si>
+  <si>
+    <t>X1808201610187721</t>
+  </si>
+  <si>
+    <t>X1806011018476768</t>
+  </si>
+  <si>
+    <t>X1808220927070750</t>
+  </si>
+  <si>
+    <t>X1804201007525597</t>
+  </si>
+  <si>
+    <t>X1808291119032011</t>
+  </si>
+  <si>
+    <t>X1805241131085344</t>
+  </si>
+  <si>
+    <t>X1809121517250560</t>
+  </si>
+  <si>
+    <t>X1808161524343513</t>
+  </si>
+  <si>
+    <t>X1805241054290770</t>
+  </si>
+  <si>
+    <t>X1806051807142975</t>
+  </si>
+  <si>
+    <t>X1808150950427987</t>
+  </si>
+  <si>
+    <t>X1810101005478399</t>
+  </si>
+  <si>
+    <t>X1805241129285139</t>
+  </si>
+  <si>
+    <t>X1808211523412651</t>
+  </si>
+  <si>
+    <t>X1806010929292395</t>
+  </si>
+  <si>
+    <t>X1804091523150786</t>
+  </si>
+  <si>
+    <t>X1810181106020600</t>
+  </si>
+  <si>
+    <t>X1809141759174082</t>
+  </si>
+  <si>
+    <t>X1810111417316113</t>
+  </si>
+  <si>
+    <t>X1804190944263714</t>
+  </si>
+  <si>
+    <t>X1810181810019481</t>
+  </si>
+  <si>
+    <t>X1808161033412002</t>
+  </si>
+  <si>
+    <t>X1804281721433887</t>
+  </si>
+  <si>
+    <t>X1808150939177915</t>
+  </si>
+  <si>
+    <t>X1809261152080032</t>
+  </si>
+  <si>
+    <t>X1806121133235307</t>
+  </si>
+  <si>
+    <t>X1804250855370627</t>
+  </si>
+  <si>
+    <t>X1807241625053416</t>
+  </si>
+  <si>
+    <t>X1809261633030146</t>
+  </si>
+  <si>
+    <t>X1809261626510073</t>
+  </si>
+  <si>
+    <t>X1804281852252766</t>
+  </si>
+  <si>
+    <t>X1804160943210055</t>
+  </si>
+  <si>
+    <t>X1804101334533189</t>
+  </si>
+  <si>
+    <t>X1809281427572121</t>
+  </si>
+  <si>
+    <t>X1808141619543770</t>
+  </si>
+  <si>
+    <t>X1809281445340544</t>
+  </si>
+  <si>
+    <t>X1809261404162332</t>
+  </si>
+  <si>
+    <t>X1804110924040085</t>
+  </si>
+  <si>
+    <t>X1808141123495082</t>
+  </si>
+  <si>
+    <t>X1805241028390536</t>
+  </si>
+  <si>
+    <t>X1804091729532179</t>
+  </si>
+  <si>
+    <t>X1808171143040482</t>
+  </si>
+  <si>
+    <t>X1808101805429589</t>
+  </si>
+  <si>
+    <t>X1808161056262231</t>
+  </si>
+  <si>
+    <t>X1809121507030490</t>
+  </si>
+  <si>
+    <t>X1804281854032775</t>
+  </si>
+  <si>
+    <t>X1810111415495893</t>
+  </si>
+  <si>
+    <t>X1807041737460620</t>
+  </si>
+  <si>
+    <t>X1804241055010013</t>
+  </si>
+  <si>
+    <t>X1808220937310894</t>
+  </si>
+  <si>
+    <t>X1808161243412846</t>
+  </si>
+  <si>
+    <t>X1804091754462348</t>
+  </si>
+  <si>
+    <t>X1804281900473045</t>
+  </si>
+  <si>
+    <t>X1809281439314398</t>
+  </si>
+  <si>
+    <t>X1808201422286194</t>
+  </si>
+  <si>
+    <t>X1810181716540847</t>
+  </si>
+  <si>
+    <t>X1807251643032277</t>
+  </si>
+  <si>
+    <t>X1810221151452938</t>
+  </si>
+  <si>
+    <t>X1804231658330035</t>
+  </si>
+  <si>
+    <t>X1804240929190748</t>
+  </si>
+  <si>
+    <t>X1804201037035953</t>
+  </si>
+  <si>
+    <t>X1808150925477826</t>
+  </si>
+  <si>
+    <t>X1804101519114620</t>
+  </si>
+  <si>
+    <t>X1809281425041350</t>
+  </si>
+  <si>
+    <t>X1804281850502759</t>
+  </si>
+  <si>
+    <t>X1807241739334361</t>
+  </si>
+  <si>
+    <t>X1807101447454152</t>
+  </si>
+  <si>
+    <t>X1808151042558587</t>
+  </si>
+  <si>
+    <t>X1807191133030111</t>
+  </si>
+  <si>
+    <t>X1810191737117660</t>
+  </si>
+  <si>
+    <t>X1809261154120054</t>
+  </si>
+  <si>
+    <t>X1807091035376864</t>
+  </si>
+  <si>
+    <t>X1808161057262245</t>
+  </si>
+  <si>
+    <t>X1804191619320112</t>
+  </si>
+  <si>
+    <t>X1809281406137110</t>
+  </si>
+  <si>
+    <t>X1808161039432068</t>
+  </si>
+  <si>
+    <t>X1810181652285544</t>
+  </si>
+  <si>
+    <t>X1804231622519808</t>
+  </si>
+  <si>
+    <t>X1808210941340980</t>
+  </si>
+  <si>
+    <t>X1808171709513868</t>
+  </si>
+  <si>
+    <t>X1804091755442363</t>
+  </si>
+  <si>
+    <t>X1804271751397431</t>
+  </si>
+  <si>
+    <t>X1808161044082147</t>
+  </si>
+  <si>
+    <t>X1810221558364643</t>
+  </si>
+  <si>
+    <t>X1804271508132149</t>
+  </si>
+  <si>
+    <t>X1808161037162040</t>
+  </si>
+  <si>
+    <t>X1808161051202170</t>
+  </si>
+  <si>
+    <t>X1808151406579641</t>
+  </si>
+  <si>
+    <t>X1808220911060282</t>
+  </si>
+  <si>
+    <t>X1809281449111319</t>
+  </si>
+  <si>
+    <t>X1810221157212989</t>
+  </si>
+  <si>
+    <t>X1804121025140510</t>
+  </si>
+  <si>
+    <t>X1808161110332397</t>
+  </si>
+  <si>
+    <t>X1809130953341667</t>
+  </si>
+  <si>
+    <t>X1804251355461144</t>
+  </si>
+  <si>
+    <t>X1808150943527950</t>
+  </si>
+  <si>
+    <t>X1804101050160366</t>
+  </si>
+  <si>
+    <t>X1809141757264058</t>
+  </si>
+  <si>
+    <t>X1804161357270764</t>
+  </si>
+  <si>
+    <t>X1808161040172090</t>
+  </si>
+  <si>
+    <t>X1805241036250582</t>
+  </si>
+  <si>
+    <t>X1805241044050726</t>
+  </si>
+  <si>
+    <t>X1810191723467299</t>
+  </si>
+  <si>
+    <t>X1804231701430205</t>
+  </si>
+  <si>
+    <t>X1808211413152315</t>
+  </si>
+  <si>
+    <t>X1809101607332906</t>
+  </si>
+  <si>
+    <t>X1804091616051441</t>
+  </si>
+  <si>
+    <t>X1809281451031792</t>
+  </si>
+  <si>
+    <t>X1810221600164672</t>
+  </si>
+  <si>
+    <t>X1808301651487171</t>
+  </si>
+  <si>
+    <t>X1808161027231943</t>
+  </si>
+  <si>
+    <t>X1808201419585713</t>
+  </si>
+  <si>
+    <t>X1804160922245337</t>
+  </si>
+  <si>
+    <t>X1805071748104442</t>
+  </si>
+  <si>
+    <t>X1808161018521897</t>
+  </si>
+  <si>
+    <t>X1810191734587611</t>
+  </si>
+  <si>
+    <t>X1810191733337512</t>
+  </si>
+  <si>
+    <t>X1807121657090994</t>
+  </si>
+  <si>
+    <t>X1805101710481284</t>
+  </si>
+  <si>
+    <t>X1807100945025971</t>
+  </si>
+  <si>
+    <t>X1807271146098764</t>
+  </si>
+  <si>
+    <t>X1804101053340001</t>
+  </si>
+  <si>
+    <t>X1804101100020096</t>
+  </si>
+  <si>
+    <t>X1804121015200381</t>
+  </si>
+  <si>
+    <t>X1804161715363434</t>
+  </si>
+  <si>
+    <t>X1807101120087770</t>
+  </si>
+  <si>
+    <t>X1804251041542088</t>
+  </si>
+  <si>
+    <t>X1808150934337876</t>
+  </si>
+  <si>
+    <t>X1806011359417683</t>
+  </si>
+  <si>
+    <t>X1804191557580038</t>
+  </si>
+  <si>
+    <t>X1804100959560151</t>
+  </si>
+  <si>
+    <t>X1809121513400524</t>
+  </si>
+  <si>
+    <t>X1804091537180876</t>
+  </si>
+  <si>
+    <t>X1805241032340570</t>
+  </si>
+  <si>
+    <t>X1804240909310688</t>
+  </si>
+  <si>
+    <t>X1810191742137792</t>
+  </si>
+  <si>
+    <t>X1808171705583765</t>
+  </si>
+  <si>
+    <t>X1804241348394233</t>
+  </si>
+  <si>
+    <t>X1804110851347072</t>
+  </si>
+  <si>
+    <t>X1804161055060049</t>
+  </si>
+  <si>
+    <t>X1805101003366511</t>
+  </si>
+  <si>
+    <t>X1805091529331005</t>
+  </si>
+  <si>
+    <t>X1808030937556537</t>
+  </si>
+  <si>
+    <t>X1807101451144209</t>
+  </si>
+  <si>
+    <t>X1803191412270545</t>
+  </si>
+  <si>
+    <t>X1807271756394015</t>
+  </si>
+  <si>
+    <t>X1804231053340086</t>
+  </si>
+  <si>
+    <t>X1808210938230963</t>
+  </si>
+  <si>
+    <t>X1808161054592220</t>
+  </si>
+  <si>
+    <t>X1809261409132436</t>
+  </si>
+  <si>
+    <t>X1807101123008151</t>
+  </si>
+  <si>
+    <t>X1804121707575007</t>
+  </si>
+  <si>
+    <t>X1808231434000831</t>
+  </si>
+  <si>
+    <t>X1808161022121910</t>
+  </si>
+  <si>
+    <t>X1806070907390586</t>
+  </si>
+  <si>
+    <t>X1808151453029924</t>
+  </si>
+  <si>
+    <t>X1808161049312160</t>
+  </si>
+  <si>
+    <t>X1804231633499915</t>
+  </si>
+  <si>
+    <t>X1808151400479596</t>
+  </si>
+  <si>
+    <t>X1807171004076000</t>
+  </si>
+  <si>
+    <t>X1809261159150107</t>
+  </si>
+  <si>
+    <t>X1806081659580861</t>
+  </si>
+  <si>
+    <t>X1808131108345296</t>
+  </si>
+  <si>
+    <t>X1808150919257780</t>
+  </si>
+  <si>
+    <t>X1804201056566007</t>
+  </si>
+  <si>
+    <t>X1808220914210309</t>
+  </si>
+  <si>
+    <t>X1809121520500035</t>
+  </si>
+  <si>
+    <t>X1804091744452258</t>
+  </si>
+  <si>
+    <t>X1804101607460307</t>
+  </si>
+  <si>
+    <t>X1808161103412350</t>
+  </si>
+  <si>
+    <t>X1804100945570062</t>
+  </si>
+  <si>
+    <t>X1806121128455291</t>
+  </si>
+  <si>
+    <t>X1810301037090089</t>
+  </si>
+  <si>
+    <t>X1809281156030690</t>
+  </si>
+  <si>
+    <t>X1809261402402296</t>
+  </si>
+  <si>
+    <t>X1804091609471266</t>
+  </si>
+  <si>
+    <t>X1807171809225046</t>
+  </si>
+  <si>
+    <t>X1804161009130233</t>
+  </si>
+  <si>
+    <t>X1805241046100736</t>
+  </si>
+  <si>
+    <t>X1808161140272653</t>
+  </si>
+  <si>
+    <t>X1808141734183948</t>
+  </si>
+  <si>
+    <t>X1805081725335899</t>
+  </si>
+  <si>
+    <t>X1805251503265273</t>
+  </si>
+  <si>
+    <t>X1808151115249234</t>
+  </si>
+  <si>
+    <t>X1810231624513360</t>
+  </si>
+  <si>
+    <t>X1804241708419451</t>
+  </si>
+  <si>
+    <t>X1810101753015570</t>
+  </si>
+  <si>
+    <t>X1809141351116791</t>
+  </si>
+  <si>
+    <t>X1810101749394921</t>
+  </si>
+  <si>
+    <t>X1810160958511819</t>
+  </si>
+  <si>
+    <t>X1808141605133605</t>
+  </si>
+  <si>
+    <t>X1810150918223271</t>
+  </si>
+  <si>
+    <t>X1810101748304910</t>
+  </si>
+  <si>
+    <t>X1809260913310497</t>
+  </si>
+  <si>
+    <t>X1809211710563993</t>
+  </si>
+  <si>
+    <t>X1810101752225376</t>
+  </si>
+  <si>
+    <t>X1810111524270519</t>
+  </si>
+  <si>
+    <t>X1810181554587448</t>
+  </si>
+  <si>
+    <t>X1808220904240215</t>
+  </si>
+  <si>
+    <t>X1809261444312775</t>
+  </si>
+  <si>
+    <t>X1810101745384656</t>
+  </si>
+  <si>
+    <t>X1810151625398182</t>
+  </si>
+  <si>
+    <t>X1808241411576567</t>
+  </si>
+  <si>
+    <t>X1808221417470964</t>
+  </si>
+  <si>
+    <t>X1809121156080691</t>
+  </si>
+  <si>
+    <t>X1808151404509624</t>
+  </si>
+  <si>
+    <t>X1809271356451830</t>
+  </si>
+  <si>
+    <t>X1808221648571770</t>
+  </si>
+  <si>
+    <t>X1809211658142478</t>
+  </si>
+  <si>
+    <t>X1809191702147015</t>
+  </si>
+  <si>
+    <t>X1808201057235502</t>
+  </si>
+  <si>
+    <t>X1808201538244395</t>
+  </si>
+  <si>
+    <t>X1809281146060664</t>
+  </si>
+  <si>
+    <t>X1808201743449827</t>
+  </si>
+  <si>
+    <t>X1810101737313314</t>
+  </si>
+  <si>
+    <t>X1809290909529342</t>
+  </si>
+  <si>
+    <t>X1809060953577824</t>
+  </si>
+  <si>
+    <t>X1810121043435461</t>
+  </si>
+  <si>
+    <t>X1808141419411452</t>
+  </si>
+  <si>
+    <t>X1809181013286956</t>
+  </si>
+  <si>
+    <t>X1808141425101499</t>
+  </si>
+  <si>
+    <t>X1808221109040284</t>
+  </si>
+  <si>
+    <t>X1809301013590749</t>
+  </si>
+  <si>
+    <t>X1808201730549677</t>
+  </si>
+  <si>
+    <t>X1809260931430122</t>
+  </si>
+  <si>
+    <t>X1809111016288871</t>
+  </si>
+  <si>
+    <t>X1808311742079051</t>
+  </si>
+  <si>
+    <t>X1809211145469842</t>
+  </si>
+  <si>
+    <t>X1809281454382592</t>
+  </si>
+  <si>
+    <t>X1810111447170662</t>
+  </si>
+  <si>
+    <t>X1808221350320843</t>
+  </si>
+  <si>
+    <t>X1809181014357168</t>
+  </si>
+  <si>
+    <t>X1808231734199707</t>
+  </si>
+  <si>
+    <t>X1808171750244115</t>
+  </si>
+  <si>
+    <t>X1809250953563856</t>
+  </si>
+  <si>
+    <t>X1809181125022315</t>
+  </si>
+  <si>
+    <t>X1809181040350097</t>
+  </si>
+  <si>
+    <t>X1809261044460652</t>
+  </si>
+  <si>
+    <t>X1809071035335089</t>
+  </si>
+  <si>
+    <t>X1808201548185842</t>
+  </si>
+  <si>
+    <t>X1808221032340007</t>
+  </si>
+  <si>
+    <t>X1808231615328692</t>
+  </si>
+  <si>
+    <t>X1808201741039801</t>
+  </si>
+  <si>
+    <t>X1808201448539939</t>
+  </si>
+  <si>
+    <t>X1808221751270560</t>
+  </si>
+  <si>
+    <t>X1808141554303464</t>
+  </si>
+  <si>
+    <t>X1808141543253369</t>
+  </si>
+  <si>
+    <t>X1809130951451635</t>
+  </si>
+  <si>
+    <t>X1808151037038452</t>
+  </si>
+  <si>
+    <t>X1808202107060279</t>
+  </si>
+  <si>
+    <t>X1810100959437666</t>
+  </si>
+  <si>
+    <t>X1808161146502692</t>
+  </si>
+  <si>
+    <t>X1810161045452197</t>
+  </si>
+  <si>
+    <t>X1809111435211114</t>
+  </si>
+  <si>
+    <t>X1808201035182893</t>
+  </si>
+  <si>
+    <t>X1808231731589666</t>
+  </si>
+  <si>
+    <t>X1809111054075529</t>
+  </si>
+  <si>
+    <t>X1808141421361469</t>
+  </si>
+  <si>
+    <t>X1809281350423948</t>
+  </si>
+  <si>
+    <t>X1808141423111482</t>
+  </si>
+  <si>
+    <t>X1809061523481386</t>
+  </si>
+  <si>
+    <t>X1809111113468089</t>
+  </si>
+  <si>
+    <t>X1809111128289375</t>
+  </si>
+  <si>
+    <t>X1809071039275135</t>
+  </si>
+  <si>
+    <t>X1809261621170007</t>
+  </si>
+  <si>
+    <t>X1808151350269530</t>
+  </si>
+  <si>
+    <t>X1809101636383222</t>
+  </si>
+  <si>
+    <t>X1809180954415674</t>
+  </si>
+  <si>
+    <t>X1808141600533553</t>
+  </si>
+  <si>
+    <t>X1809110943277077</t>
+  </si>
+  <si>
+    <t>X1810181102540467</t>
   </si>
 </sst>
 </file>
@@ -1123,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W199"/>
+  <dimension ref="A1:W446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2206,6 +2947,1241 @@
         <v>220</v>
       </c>
     </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>主键</t>
   </si>
@@ -110,325 +110,142 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1810101753015570</t>
-  </si>
-  <si>
-    <t>X1809141351116791</t>
-  </si>
-  <si>
-    <t>X1810101749394921</t>
-  </si>
-  <si>
-    <t>X1810160958511819</t>
-  </si>
-  <si>
-    <t>X1808141605133605</t>
-  </si>
-  <si>
-    <t>X1810150918223271</t>
-  </si>
-  <si>
-    <t>X1810101748304910</t>
-  </si>
-  <si>
-    <t>X1809260913310497</t>
-  </si>
-  <si>
-    <t>X1809211710563993</t>
-  </si>
-  <si>
-    <t>X1810101752225376</t>
-  </si>
-  <si>
-    <t>X1810111524270519</t>
-  </si>
-  <si>
-    <t>X1810181554587448</t>
-  </si>
-  <si>
-    <t>X1808220904240215</t>
-  </si>
-  <si>
-    <t>X1809261444312775</t>
-  </si>
-  <si>
-    <t>X1810101745384656</t>
-  </si>
-  <si>
-    <t>X1810151625398182</t>
-  </si>
-  <si>
-    <t>X1808241411576567</t>
-  </si>
-  <si>
-    <t>X1808221417470964</t>
-  </si>
-  <si>
-    <t>X1809121156080691</t>
-  </si>
-  <si>
-    <t>X1808151404509624</t>
-  </si>
-  <si>
-    <t>X1809271356451830</t>
-  </si>
-  <si>
-    <t>X1808221648571770</t>
-  </si>
-  <si>
-    <t>X1809211658142478</t>
-  </si>
-  <si>
-    <t>X1809191702147015</t>
-  </si>
-  <si>
-    <t>X1808201057235502</t>
-  </si>
-  <si>
-    <t>X1808201538244395</t>
-  </si>
-  <si>
-    <t>X1809281146060664</t>
-  </si>
-  <si>
-    <t>X1808201743449827</t>
-  </si>
-  <si>
-    <t>X1810101737313314</t>
-  </si>
-  <si>
-    <t>X1809290909529342</t>
-  </si>
-  <si>
-    <t>X1809060953577824</t>
-  </si>
-  <si>
-    <t>X1810121043435461</t>
-  </si>
-  <si>
-    <t>X1808141419411452</t>
-  </si>
-  <si>
-    <t>X1809181013286956</t>
-  </si>
-  <si>
-    <t>X1808141425101499</t>
-  </si>
-  <si>
-    <t>X1808221109040284</t>
-  </si>
-  <si>
-    <t>X1809301013590749</t>
-  </si>
-  <si>
-    <t>X1808201730549677</t>
-  </si>
-  <si>
-    <t>X1809260931430122</t>
-  </si>
-  <si>
-    <t>X1809111016288871</t>
-  </si>
-  <si>
-    <t>X1808311742079051</t>
-  </si>
-  <si>
-    <t>X1809211145469842</t>
-  </si>
-  <si>
-    <t>X1809281454382592</t>
-  </si>
-  <si>
-    <t>X1810111447170662</t>
-  </si>
-  <si>
-    <t>X1808221350320843</t>
-  </si>
-  <si>
-    <t>X1809181014357168</t>
-  </si>
-  <si>
-    <t>X1808231734199707</t>
-  </si>
-  <si>
-    <t>X1808171750244115</t>
-  </si>
-  <si>
-    <t>X1809250953563856</t>
-  </si>
-  <si>
-    <t>X1809181125022315</t>
-  </si>
-  <si>
-    <t>X1809181040350097</t>
-  </si>
-  <si>
-    <t>X1809261044460652</t>
-  </si>
-  <si>
-    <t>X1809071035335089</t>
-  </si>
-  <si>
-    <t>X1808201548185842</t>
-  </si>
-  <si>
-    <t>X1808221032340007</t>
-  </si>
-  <si>
-    <t>X1808231615328692</t>
-  </si>
-  <si>
-    <t>X1808201741039801</t>
-  </si>
-  <si>
-    <t>X1808201448539939</t>
-  </si>
-  <si>
-    <t>X1808221751270560</t>
-  </si>
-  <si>
-    <t>X1808141554303464</t>
-  </si>
-  <si>
-    <t>X1808141543253369</t>
-  </si>
-  <si>
-    <t>X1809130951451635</t>
-  </si>
-  <si>
-    <t>X1808151037038452</t>
-  </si>
-  <si>
-    <t>X1808202107060279</t>
-  </si>
-  <si>
-    <t>X1810100959437666</t>
-  </si>
-  <si>
-    <t>X1808161146502692</t>
-  </si>
-  <si>
-    <t>X1810161045452197</t>
-  </si>
-  <si>
-    <t>X1809111435211114</t>
-  </si>
-  <si>
-    <t>X1808201035182893</t>
-  </si>
-  <si>
-    <t>X1808231731589666</t>
-  </si>
-  <si>
-    <t>X1809111054075529</t>
-  </si>
-  <si>
-    <t>X1808141421361469</t>
-  </si>
-  <si>
-    <t>X1809281350423948</t>
-  </si>
-  <si>
-    <t>X1808141423111482</t>
-  </si>
-  <si>
-    <t>X1809061523481386</t>
-  </si>
-  <si>
-    <t>X1809111113468089</t>
-  </si>
-  <si>
-    <t>X1809111128289375</t>
-  </si>
-  <si>
-    <t>X1809071039275135</t>
-  </si>
-  <si>
-    <t>X1809261621170007</t>
-  </si>
-  <si>
-    <t>X1808151350269530</t>
-  </si>
-  <si>
-    <t>X1809101636383222</t>
-  </si>
-  <si>
-    <t>X1809180954415674</t>
-  </si>
-  <si>
-    <t>X1808141600533553</t>
-  </si>
-  <si>
-    <t>X1809110943277077</t>
-  </si>
-  <si>
-    <t>X1810181102540467</t>
-  </si>
-  <si>
-    <t>X1809070925573969</t>
-  </si>
-  <si>
-    <t>X1809070919423871</t>
-  </si>
-  <si>
-    <t>X1809070922143898</t>
-  </si>
-  <si>
-    <t>X1809131119445892</t>
-  </si>
-  <si>
-    <t>X1809261530273093</t>
-  </si>
-  <si>
-    <t>X1809261532583123</t>
-  </si>
-  <si>
-    <t>X1809070921073890</t>
-  </si>
-  <si>
-    <t>X1809251110540537</t>
-  </si>
-  <si>
-    <t>X1809061720152510</t>
-  </si>
-  <si>
-    <t>X1809070939404141</t>
-  </si>
-  <si>
-    <t>X1809211122236811</t>
-  </si>
-  <si>
-    <t>X1809070940214154</t>
-  </si>
-  <si>
-    <t>X1809281506271309</t>
-  </si>
-  <si>
-    <t>X1809281504591047</t>
-  </si>
-  <si>
-    <t>X1809070928053978</t>
-  </si>
-  <si>
-    <t>X1809061729402654</t>
-  </si>
-  <si>
-    <t>X1809281503290641</t>
-  </si>
-  <si>
-    <t>X1809070924023917</t>
-  </si>
-  <si>
-    <t>X1809070941114165</t>
-  </si>
-  <si>
-    <t>X1810181421444560</t>
-  </si>
-  <si>
-    <t>X1810241024083029</t>
-  </si>
-  <si>
-    <t>X1810231056115070</t>
+    <t>X1804251549087364</t>
+  </si>
+  <si>
+    <t>X1804111406556022</t>
+  </si>
+  <si>
+    <t>X1804111342533232</t>
+  </si>
+  <si>
+    <t>X1804201721018121</t>
+  </si>
+  <si>
+    <t>X1805100855549953</t>
+  </si>
+  <si>
+    <t>X1807231454210332</t>
+  </si>
+  <si>
+    <t>X1807101128108454</t>
+  </si>
+  <si>
+    <t>X1804121102060120</t>
+  </si>
+  <si>
+    <t>X1806011415029969</t>
+  </si>
+  <si>
+    <t>X1808211206392089</t>
+  </si>
+  <si>
+    <t>X1804101059470079</t>
+  </si>
+  <si>
+    <t>X1808100956480690</t>
+  </si>
+  <si>
+    <t>X1807041752490765</t>
+  </si>
+  <si>
+    <t>X1804240848560131</t>
+  </si>
+  <si>
+    <t>X1807181026053833</t>
+  </si>
+  <si>
+    <t>X1804201618123097</t>
+  </si>
+  <si>
+    <t>X1804181201390716</t>
+  </si>
+  <si>
+    <t>X1807091048266995</t>
+  </si>
+  <si>
+    <t>X1808100944440609</t>
+  </si>
+  <si>
+    <t>X1806011555011601</t>
+  </si>
+  <si>
+    <t>X1804091043030003</t>
+  </si>
+  <si>
+    <t>X1804230957155020</t>
+  </si>
+  <si>
+    <t>X1805180858426575</t>
+  </si>
+  <si>
+    <t>X1804201622373428</t>
+  </si>
+  <si>
+    <t>X1806010910170195</t>
+  </si>
+  <si>
+    <t>X1807201101479814</t>
+  </si>
+  <si>
+    <t>X1807231451160310</t>
+  </si>
+  <si>
+    <t>X1807101114576081</t>
+  </si>
+  <si>
+    <t>X1807091038306903</t>
+  </si>
+  <si>
+    <t>X1804100942500044</t>
+  </si>
+  <si>
+    <t>X1804101053450001</t>
+  </si>
+  <si>
+    <t>X1804121120190464</t>
+  </si>
+  <si>
+    <t>X1804111536340554</t>
+  </si>
+  <si>
+    <t>X1806061555204476</t>
+  </si>
+  <si>
+    <t>X1804101523364637</t>
+  </si>
+  <si>
+    <t>X1806011431002504</t>
+  </si>
+  <si>
+    <t>X1807100905530294</t>
+  </si>
+  <si>
+    <t>X1804230916244824</t>
+  </si>
+  <si>
+    <t>X1810111015538667</t>
+  </si>
+  <si>
+    <t>X1804201645533782</t>
+  </si>
+  <si>
+    <t>X1804201610180535</t>
+  </si>
+  <si>
+    <t>X1804231342352406</t>
+  </si>
+  <si>
+    <t>X1808021258392953</t>
+  </si>
+  <si>
+    <t>X1808291458176234</t>
+  </si>
+  <si>
+    <t>X1804121004540321</t>
+  </si>
+  <si>
+    <t>X1804160926375386</t>
   </si>
 </sst>
 </file>
@@ -850,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,537 +762,232 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>主键</t>
   </si>
@@ -110,142 +110,127 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1804251549087364</t>
-  </si>
-  <si>
-    <t>X1804111406556022</t>
-  </si>
-  <si>
-    <t>X1804111342533232</t>
-  </si>
-  <si>
-    <t>X1804201721018121</t>
-  </si>
-  <si>
-    <t>X1805100855549953</t>
-  </si>
-  <si>
-    <t>X1807231454210332</t>
-  </si>
-  <si>
-    <t>X1807101128108454</t>
-  </si>
-  <si>
-    <t>X1804121102060120</t>
-  </si>
-  <si>
-    <t>X1806011415029969</t>
-  </si>
-  <si>
-    <t>X1808211206392089</t>
-  </si>
-  <si>
-    <t>X1804101059470079</t>
-  </si>
-  <si>
-    <t>X1808100956480690</t>
-  </si>
-  <si>
-    <t>X1807041752490765</t>
-  </si>
-  <si>
-    <t>X1804240848560131</t>
-  </si>
-  <si>
-    <t>X1807181026053833</t>
-  </si>
-  <si>
-    <t>X1804201618123097</t>
-  </si>
-  <si>
-    <t>X1804181201390716</t>
-  </si>
-  <si>
-    <t>X1807091048266995</t>
-  </si>
-  <si>
-    <t>X1808100944440609</t>
-  </si>
-  <si>
-    <t>X1806011555011601</t>
-  </si>
-  <si>
-    <t>X1804091043030003</t>
-  </si>
-  <si>
-    <t>X1804230957155020</t>
-  </si>
-  <si>
-    <t>X1805180858426575</t>
-  </si>
-  <si>
-    <t>X1804201622373428</t>
-  </si>
-  <si>
-    <t>X1806010910170195</t>
-  </si>
-  <si>
-    <t>X1807201101479814</t>
-  </si>
-  <si>
-    <t>X1807231451160310</t>
-  </si>
-  <si>
-    <t>X1807101114576081</t>
-  </si>
-  <si>
-    <t>X1807091038306903</t>
-  </si>
-  <si>
-    <t>X1804100942500044</t>
-  </si>
-  <si>
-    <t>X1804101053450001</t>
-  </si>
-  <si>
-    <t>X1804121120190464</t>
-  </si>
-  <si>
-    <t>X1804111536340554</t>
-  </si>
-  <si>
-    <t>X1806061555204476</t>
-  </si>
-  <si>
-    <t>X1804101523364637</t>
-  </si>
-  <si>
-    <t>X1806011431002504</t>
-  </si>
-  <si>
-    <t>X1807100905530294</t>
-  </si>
-  <si>
-    <t>X1804230916244824</t>
-  </si>
-  <si>
-    <t>X1810111015538667</t>
-  </si>
-  <si>
-    <t>X1804201645533782</t>
-  </si>
-  <si>
-    <t>X1804201610180535</t>
-  </si>
-  <si>
-    <t>X1804231342352406</t>
-  </si>
-  <si>
-    <t>X1808021258392953</t>
-  </si>
-  <si>
-    <t>X1808291458176234</t>
-  </si>
-  <si>
-    <t>X1804121004540321</t>
-  </si>
-  <si>
-    <t>X1804160926375386</t>
+    <t>X1805081638011444</t>
+  </si>
+  <si>
+    <t>X1804231628219869</t>
+  </si>
+  <si>
+    <t>X1807050909460719</t>
+  </si>
+  <si>
+    <t>X1804241045450626</t>
+  </si>
+  <si>
+    <t>X1805221630000102</t>
+  </si>
+  <si>
+    <t>X1804131632080162</t>
+  </si>
+  <si>
+    <t>X1807050911280852</t>
+  </si>
+  <si>
+    <t>X1806011144043792</t>
+  </si>
+  <si>
+    <t>X1804100959420139</t>
+  </si>
+  <si>
+    <t>X1804131703300731</t>
+  </si>
+  <si>
+    <t>X1804091406560543</t>
+  </si>
+  <si>
+    <t>X1804121722305118</t>
+  </si>
+  <si>
+    <t>X1807100939595013</t>
+  </si>
+  <si>
+    <t>X1804131628390128</t>
+  </si>
+  <si>
+    <t>X1806011409089215</t>
+  </si>
+  <si>
+    <t>X1804131332230082</t>
+  </si>
+  <si>
+    <t>X1807021552537200</t>
+  </si>
+  <si>
+    <t>X1804131700070688</t>
+  </si>
+  <si>
+    <t>X1804201604229501</t>
+  </si>
+  <si>
+    <t>X1804100914203401</t>
+  </si>
+  <si>
+    <t>X1805141722380491</t>
+  </si>
+  <si>
+    <t>X1804131644220403</t>
+  </si>
+  <si>
+    <t>X1804091651511702</t>
+  </si>
+  <si>
+    <t>X1806011405238808</t>
+  </si>
+  <si>
+    <t>X1804160931435428</t>
+  </si>
+  <si>
+    <t>X1804281613069390</t>
+  </si>
+  <si>
+    <t>X1806251706032427</t>
+  </si>
+  <si>
+    <t>X1804131627020114</t>
+  </si>
+  <si>
+    <t>X1804131635100208</t>
+  </si>
+  <si>
+    <t>X1809040940240154</t>
+  </si>
+  <si>
+    <t>X1804201619083223</t>
+  </si>
+  <si>
+    <t>X1804101639360524</t>
+  </si>
+  <si>
+    <t>X1806011155074700</t>
+  </si>
+  <si>
+    <t>X1806011418080425</t>
+  </si>
+  <si>
+    <t>X1804131633530181</t>
+  </si>
+  <si>
+    <t>X1804131625310093</t>
+  </si>
+  <si>
+    <t>X1804131657230617</t>
+  </si>
+  <si>
+    <t>X1810221046132075</t>
+  </si>
+  <si>
+    <t>X1804131641300323</t>
+  </si>
+  <si>
+    <t>X1804131658380643</t>
+  </si>
+  <si>
+    <t>X1804131701260715</t>
   </si>
 </sst>
 </file>
@@ -667,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,27 +952,22 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>主键</t>
   </si>
@@ -110,127 +110,32 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1805081638011444</t>
-  </si>
-  <si>
-    <t>X1804231628219869</t>
-  </si>
-  <si>
-    <t>X1807050909460719</t>
-  </si>
-  <si>
-    <t>X1804241045450626</t>
-  </si>
-  <si>
-    <t>X1805221630000102</t>
-  </si>
-  <si>
-    <t>X1804131632080162</t>
-  </si>
-  <si>
-    <t>X1807050911280852</t>
-  </si>
-  <si>
-    <t>X1806011144043792</t>
-  </si>
-  <si>
-    <t>X1804100959420139</t>
-  </si>
-  <si>
-    <t>X1804131703300731</t>
-  </si>
-  <si>
-    <t>X1804091406560543</t>
-  </si>
-  <si>
-    <t>X1804121722305118</t>
-  </si>
-  <si>
-    <t>X1807100939595013</t>
-  </si>
-  <si>
-    <t>X1804131628390128</t>
-  </si>
-  <si>
-    <t>X1806011409089215</t>
-  </si>
-  <si>
-    <t>X1804131332230082</t>
-  </si>
-  <si>
-    <t>X1807021552537200</t>
-  </si>
-  <si>
-    <t>X1804131700070688</t>
-  </si>
-  <si>
-    <t>X1804201604229501</t>
-  </si>
-  <si>
-    <t>X1804100914203401</t>
-  </si>
-  <si>
-    <t>X1805141722380491</t>
-  </si>
-  <si>
-    <t>X1804131644220403</t>
-  </si>
-  <si>
-    <t>X1804091651511702</t>
-  </si>
-  <si>
-    <t>X1806011405238808</t>
-  </si>
-  <si>
-    <t>X1804160931435428</t>
-  </si>
-  <si>
-    <t>X1804281613069390</t>
-  </si>
-  <si>
-    <t>X1806251706032427</t>
-  </si>
-  <si>
-    <t>X1804131627020114</t>
-  </si>
-  <si>
-    <t>X1804131635100208</t>
-  </si>
-  <si>
-    <t>X1809040940240154</t>
-  </si>
-  <si>
-    <t>X1804201619083223</t>
-  </si>
-  <si>
-    <t>X1804101639360524</t>
-  </si>
-  <si>
-    <t>X1806011155074700</t>
-  </si>
-  <si>
-    <t>X1806011418080425</t>
-  </si>
-  <si>
-    <t>X1804131633530181</t>
-  </si>
-  <si>
-    <t>X1804131625310093</t>
-  </si>
-  <si>
-    <t>X1804131657230617</t>
-  </si>
-  <si>
-    <t>X1810221046132075</t>
-  </si>
-  <si>
-    <t>X1804131641300323</t>
-  </si>
-  <si>
-    <t>X1804131658380643</t>
-  </si>
-  <si>
-    <t>X1804131701260715</t>
+    <t>X1806111744314354</t>
+  </si>
+  <si>
+    <t>X1804251438465173</t>
+  </si>
+  <si>
+    <t>X1805291527310157</t>
+  </si>
+  <si>
+    <t>X1807030859560619</t>
+  </si>
+  <si>
+    <t>X1804161422091016</t>
+  </si>
+  <si>
+    <t>X1806141527467743</t>
+  </si>
+  <si>
+    <t>X1806131606580717</t>
+  </si>
+  <si>
+    <t>X1804251520531249</t>
+  </si>
+  <si>
+    <t>X1804091725372098</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,193 +686,13 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>主键</t>
   </si>
@@ -110,32 +110,136 @@
     <t>经办媒介</t>
   </si>
   <si>
+    <t>X1807050915241523</t>
+  </si>
+  <si>
+    <t>X1805281603054208</t>
+  </si>
+  <si>
     <t>X1806111744314354</t>
   </si>
   <si>
+    <t>X1804111115579575</t>
+  </si>
+  <si>
+    <t>X1804241804259905</t>
+  </si>
+  <si>
+    <t>X1805301023511392</t>
+  </si>
+  <si>
     <t>X1804251438465173</t>
   </si>
   <si>
+    <t>X1804101121412106</t>
+  </si>
+  <si>
+    <t>X1805030925246980</t>
+  </si>
+  <si>
+    <t>X1804281057206025</t>
+  </si>
+  <si>
+    <t>X1807130959137875</t>
+  </si>
+  <si>
+    <t>X1805251722484428</t>
+  </si>
+  <si>
+    <t>X1804131145460950</t>
+  </si>
+  <si>
+    <t>X1804111351553981</t>
+  </si>
+  <si>
+    <t>X1804111510065179</t>
+  </si>
+  <si>
     <t>X1805291527310157</t>
   </si>
   <si>
+    <t>X1806291759346904</t>
+  </si>
+  <si>
+    <t>X1804131552203439</t>
+  </si>
+  <si>
+    <t>X1804241554428609</t>
+  </si>
+  <si>
     <t>X1807030859560619</t>
   </si>
   <si>
+    <t>X1804261525157321</t>
+  </si>
+  <si>
+    <t>X1804100857493283</t>
+  </si>
+  <si>
+    <t>X1806131559570016</t>
+  </si>
+  <si>
+    <t>X1806011408279181</t>
+  </si>
+  <si>
+    <t>X1807041747260714</t>
+  </si>
+  <si>
+    <t>X1806061544324405</t>
+  </si>
+  <si>
+    <t>X1806251054394474</t>
+  </si>
+  <si>
+    <t>X1804101118281788</t>
+  </si>
+  <si>
+    <t>X1805141727000499</t>
+  </si>
+  <si>
+    <t>X1804181545341594</t>
+  </si>
+  <si>
     <t>X1804161422091016</t>
   </si>
   <si>
+    <t>X1807251019066644</t>
+  </si>
+  <si>
+    <t>X1808211151291958</t>
+  </si>
+  <si>
+    <t>X1804260831360033</t>
+  </si>
+  <si>
+    <t>X1806280852256845</t>
+  </si>
+  <si>
     <t>X1806141527467743</t>
   </si>
   <si>
     <t>X1806131606580717</t>
   </si>
   <si>
+    <t>X1804191714170231</t>
+  </si>
+  <si>
+    <t>X1804091725372098</t>
+  </si>
+  <si>
+    <t>X1805251636562904</t>
+  </si>
+  <si>
     <t>X1804251520531249</t>
   </si>
   <si>
-    <t>X1804091725372098</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>X1804201431397071</t>
+  </si>
+  <si>
+    <t>X1807101108363202</t>
+  </si>
+  <si>
+    <t>X1806081653560826</t>
   </si>
 </sst>
 </file>
@@ -557,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,13 +790,188 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
+      <c r="A9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>主键</t>
   </si>
@@ -110,136 +110,25 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1807050915241523</t>
-  </si>
-  <si>
-    <t>X1805281603054208</t>
-  </si>
-  <si>
-    <t>X1806111744314354</t>
-  </si>
-  <si>
-    <t>X1804111115579575</t>
-  </si>
-  <si>
-    <t>X1804241804259905</t>
-  </si>
-  <si>
-    <t>X1805301023511392</t>
-  </si>
-  <si>
-    <t>X1804251438465173</t>
-  </si>
-  <si>
-    <t>X1804101121412106</t>
-  </si>
-  <si>
-    <t>X1805030925246980</t>
-  </si>
-  <si>
-    <t>X1804281057206025</t>
-  </si>
-  <si>
-    <t>X1807130959137875</t>
-  </si>
-  <si>
-    <t>X1805251722484428</t>
-  </si>
-  <si>
-    <t>X1804131145460950</t>
-  </si>
-  <si>
-    <t>X1804111351553981</t>
-  </si>
-  <si>
-    <t>X1804111510065179</t>
-  </si>
-  <si>
-    <t>X1805291527310157</t>
-  </si>
-  <si>
-    <t>X1806291759346904</t>
-  </si>
-  <si>
-    <t>X1804131552203439</t>
-  </si>
-  <si>
-    <t>X1804241554428609</t>
-  </si>
-  <si>
-    <t>X1807030859560619</t>
-  </si>
-  <si>
-    <t>X1804261525157321</t>
-  </si>
-  <si>
-    <t>X1804100857493283</t>
-  </si>
-  <si>
-    <t>X1806131559570016</t>
-  </si>
-  <si>
-    <t>X1806011408279181</t>
-  </si>
-  <si>
-    <t>X1807041747260714</t>
-  </si>
-  <si>
-    <t>X1806061544324405</t>
-  </si>
-  <si>
-    <t>X1806251054394474</t>
-  </si>
-  <si>
-    <t>X1804101118281788</t>
-  </si>
-  <si>
-    <t>X1805141727000499</t>
-  </si>
-  <si>
-    <t>X1804181545341594</t>
-  </si>
-  <si>
-    <t>X1804161422091016</t>
-  </si>
-  <si>
-    <t>X1807251019066644</t>
-  </si>
-  <si>
-    <t>X1808211151291958</t>
-  </si>
-  <si>
-    <t>X1804260831360033</t>
-  </si>
-  <si>
-    <t>X1806280852256845</t>
-  </si>
-  <si>
-    <t>X1806141527467743</t>
-  </si>
-  <si>
-    <t>X1806131606580717</t>
-  </si>
-  <si>
-    <t>X1804191714170231</t>
-  </si>
-  <si>
-    <t>X1804091725372098</t>
-  </si>
-  <si>
-    <t>X1805251636562904</t>
-  </si>
-  <si>
-    <t>X1804251520531249</t>
-  </si>
-  <si>
-    <t>X1804201431397071</t>
-  </si>
-  <si>
-    <t>X1807101108363202</t>
-  </si>
-  <si>
-    <t>X1806081653560826</t>
+    <t>X1810101753015570</t>
+  </si>
+  <si>
+    <t>X1810101749394921</t>
+  </si>
+  <si>
+    <t>X1810101748304910</t>
+  </si>
+  <si>
+    <t>X1810101752225376</t>
+  </si>
+  <si>
+    <t>X1810101745384656</t>
+  </si>
+  <si>
+    <t>X1810101737313314</t>
+  </si>
+  <si>
+    <t>X1808202107060279</t>
   </si>
 </sst>
 </file>
@@ -661,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,191 +678,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>主键</t>
   </si>
@@ -110,25 +110,40 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1810101753015570</t>
-  </si>
-  <si>
-    <t>X1810101749394921</t>
-  </si>
-  <si>
-    <t>X1810101748304910</t>
-  </si>
-  <si>
-    <t>X1810101752225376</t>
-  </si>
-  <si>
-    <t>X1810101745384656</t>
-  </si>
-  <si>
-    <t>X1810101737313314</t>
-  </si>
-  <si>
-    <t>X1808202107060279</t>
+    <t>X1803091025340263</t>
+  </si>
+  <si>
+    <t>X1804021737440748</t>
+  </si>
+  <si>
+    <t>X1807101139458616</t>
+  </si>
+  <si>
+    <t>X1804021737370688</t>
+  </si>
+  <si>
+    <t>X1811081753047325</t>
+  </si>
+  <si>
+    <t>X1809261355242199</t>
+  </si>
+  <si>
+    <t>X1806281348220031</t>
+  </si>
+  <si>
+    <t>X1807181155001735</t>
+  </si>
+  <si>
+    <t>X1804021737380696</t>
+  </si>
+  <si>
+    <t>X1803091025190133</t>
+  </si>
+  <si>
+    <t>X1811081046033851</t>
+  </si>
+  <si>
+    <t>X1810301630010749</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,6 +693,31 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>主键</t>
   </si>
@@ -110,40 +110,28 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1803091025340263</t>
-  </si>
-  <si>
-    <t>X1804021737440748</t>
-  </si>
-  <si>
-    <t>X1807101139458616</t>
-  </si>
-  <si>
-    <t>X1804021737370688</t>
-  </si>
-  <si>
-    <t>X1811081753047325</t>
-  </si>
-  <si>
-    <t>X1809261355242199</t>
-  </si>
-  <si>
-    <t>X1806281348220031</t>
-  </si>
-  <si>
-    <t>X1807181155001735</t>
-  </si>
-  <si>
-    <t>X1804021737380696</t>
-  </si>
-  <si>
-    <t>X1803091025190133</t>
-  </si>
-  <si>
-    <t>X1811081046033851</t>
-  </si>
-  <si>
-    <t>X1810301630010749</t>
+    <t>X1810221150012916</t>
+  </si>
+  <si>
+    <t>X1810221153542964</t>
+  </si>
+  <si>
+    <t>X1810221159103013</t>
+  </si>
+  <si>
+    <t>X1810221151452938</t>
+  </si>
+  <si>
+    <t>X1810181716540847</t>
+  </si>
+  <si>
+    <t>X1807241739334361</t>
+  </si>
+  <si>
+    <t>X1810221157212989</t>
+  </si>
+  <si>
+    <t>X1809141757264058</t>
   </si>
 </sst>
 </file>
@@ -565,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,26 +686,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>主键</t>
   </si>
@@ -110,28 +110,679 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1810221150012916</t>
-  </si>
-  <si>
-    <t>X1810221153542964</t>
-  </si>
-  <si>
-    <t>X1810221159103013</t>
-  </si>
-  <si>
-    <t>X1810221151452938</t>
-  </si>
-  <si>
-    <t>X1810181716540847</t>
-  </si>
-  <si>
-    <t>X1807241739334361</t>
-  </si>
-  <si>
-    <t>X1810221157212989</t>
-  </si>
-  <si>
-    <t>X1809141757264058</t>
+    <t>X1810191415412827</t>
+  </si>
+  <si>
+    <t>X1810191348181914</t>
+  </si>
+  <si>
+    <t>X1810191353541992</t>
+  </si>
+  <si>
+    <t>X1810191350441957</t>
+  </si>
+  <si>
+    <t>X1810191349201928</t>
+  </si>
+  <si>
+    <t>X1810191402392610</t>
+  </si>
+  <si>
+    <t>X1810191407302686</t>
+  </si>
+  <si>
+    <t>X1810191414392796</t>
+  </si>
+  <si>
+    <t>X1810191413392783</t>
+  </si>
+  <si>
+    <t>X1810191411362741</t>
+  </si>
+  <si>
+    <t>X1810191358042034</t>
+  </si>
+  <si>
+    <t>X1810191347141891</t>
+  </si>
+  <si>
+    <t>X1810191408302699</t>
+  </si>
+  <si>
+    <t>X1810191412252769</t>
+  </si>
+  <si>
+    <t>X1810191406262669</t>
+  </si>
+  <si>
+    <t>X1810191404222640</t>
+  </si>
+  <si>
+    <t>X1810191409272712</t>
+  </si>
+  <si>
+    <t>X1810191410282728</t>
+  </si>
+  <si>
+    <t>X1810191359242051</t>
+  </si>
+  <si>
+    <t>X1810191400212124</t>
+  </si>
+  <si>
+    <t>X1810191401312509</t>
+  </si>
+  <si>
+    <t>X1810191352131977</t>
+  </si>
+  <si>
+    <t>X1810191355362006</t>
+  </si>
+  <si>
+    <t>X1810301131580997</t>
+  </si>
+  <si>
+    <t>X1810301132141223</t>
+  </si>
+  <si>
+    <t>X1810301131310632</t>
+  </si>
+  <si>
+    <t>X1810301132291414</t>
+  </si>
+  <si>
+    <t>X1810301132041087</t>
+  </si>
+  <si>
+    <t>X1810301132311432</t>
+  </si>
+  <si>
+    <t>X1810301131330668</t>
+  </si>
+  <si>
+    <t>X1810301131480859</t>
+  </si>
+  <si>
+    <t>X1810301131340677</t>
+  </si>
+  <si>
+    <t>X1810301131100355</t>
+  </si>
+  <si>
+    <t>X1810301132431594</t>
+  </si>
+  <si>
+    <t>X1810301132221331</t>
+  </si>
+  <si>
+    <t>X1810301132001024</t>
+  </si>
+  <si>
+    <t>X1810301131350686</t>
+  </si>
+  <si>
+    <t>X1810301131270586</t>
+  </si>
+  <si>
+    <t>X1810301132451630</t>
+  </si>
+  <si>
+    <t>X1810301131560977</t>
+  </si>
+  <si>
+    <t>X1810301132271387</t>
+  </si>
+  <si>
+    <t>X1810301131000236</t>
+  </si>
+  <si>
+    <t>X1810301131490877</t>
+  </si>
+  <si>
+    <t>X1810301132281405</t>
+  </si>
+  <si>
+    <t>X1810301131530931</t>
+  </si>
+  <si>
+    <t>X1810301131360704</t>
+  </si>
+  <si>
+    <t>X1810301131500886</t>
+  </si>
+  <si>
+    <t>X1810301131050281</t>
+  </si>
+  <si>
+    <t>X1810301131591015</t>
+  </si>
+  <si>
+    <t>X1810301132061114</t>
+  </si>
+  <si>
+    <t>X1810301131540950</t>
+  </si>
+  <si>
+    <t>X1810301131570986</t>
+  </si>
+  <si>
+    <t>X1810301131520913</t>
+  </si>
+  <si>
+    <t>X1810301131120384</t>
+  </si>
+  <si>
+    <t>X1810301132431603</t>
+  </si>
+  <si>
+    <t>X1810301131400759</t>
+  </si>
+  <si>
+    <t>X1810301131000245</t>
+  </si>
+  <si>
+    <t>X1810301132441612</t>
+  </si>
+  <si>
+    <t>X1810301132451621</t>
+  </si>
+  <si>
+    <t>X1810301131170447</t>
+  </si>
+  <si>
+    <t>X1810301131300623</t>
+  </si>
+  <si>
+    <t>X1810301132461640</t>
+  </si>
+  <si>
+    <t>X1810301132471649</t>
+  </si>
+  <si>
+    <t>X1810301132261377</t>
+  </si>
+  <si>
+    <t>X1810301132371513</t>
+  </si>
+  <si>
+    <t>X1810301132111178</t>
+  </si>
+  <si>
+    <t>X1810301132081142</t>
+  </si>
+  <si>
+    <t>X1810301131250559</t>
+  </si>
+  <si>
+    <t>X1810301131160429</t>
+  </si>
+  <si>
+    <t>X1810301131100346</t>
+  </si>
+  <si>
+    <t>X1810301131260577</t>
+  </si>
+  <si>
+    <t>X1810301132261368</t>
+  </si>
+  <si>
+    <t>X1810301131030254</t>
+  </si>
+  <si>
+    <t>X1810301131040272</t>
+  </si>
+  <si>
+    <t>X1810301131370722</t>
+  </si>
+  <si>
+    <t>X1810301131390749</t>
+  </si>
+  <si>
+    <t>X1810301131540940</t>
+  </si>
+  <si>
+    <t>X1810301131420777</t>
+  </si>
+  <si>
+    <t>X1810301131200485</t>
+  </si>
+  <si>
+    <t>X1810301131120375</t>
+  </si>
+  <si>
+    <t>X1810301131140411</t>
+  </si>
+  <si>
+    <t>X1810301131350695</t>
+  </si>
+  <si>
+    <t>X1810301132071123</t>
+  </si>
+  <si>
+    <t>X1810301130590227</t>
+  </si>
+  <si>
+    <t>X1810301132311441</t>
+  </si>
+  <si>
+    <t>X1810301132411567</t>
+  </si>
+  <si>
+    <t>X1810301132021060</t>
+  </si>
+  <si>
+    <t>X1810301131080318</t>
+  </si>
+  <si>
+    <t>X1810301131060290</t>
+  </si>
+  <si>
+    <t>X1810301132101169</t>
+  </si>
+  <si>
+    <t>X1810301132091151</t>
+  </si>
+  <si>
+    <t>X1810301132341477</t>
+  </si>
+  <si>
+    <t>X1810301132181268</t>
+  </si>
+  <si>
+    <t>X1810301132321450</t>
+  </si>
+  <si>
+    <t>X1810301131220513</t>
+  </si>
+  <si>
+    <t>X1810301132021051</t>
+  </si>
+  <si>
+    <t>X1810301131040263</t>
+  </si>
+  <si>
+    <t>X1810301131210503</t>
+  </si>
+  <si>
+    <t>X1810301131060299</t>
+  </si>
+  <si>
+    <t>X1810301132421585</t>
+  </si>
+  <si>
+    <t>X1810301132191286</t>
+  </si>
+  <si>
+    <t>X1810301131460841</t>
+  </si>
+  <si>
+    <t>X1810301131090337</t>
+  </si>
+  <si>
+    <t>X1810301131080328</t>
+  </si>
+  <si>
+    <t>X1810301132301423</t>
+  </si>
+  <si>
+    <t>X1810301132101160</t>
+  </si>
+  <si>
+    <t>X1810301132391540</t>
+  </si>
+  <si>
+    <t>X1810301131560968</t>
+  </si>
+  <si>
+    <t>X1810301131510904</t>
+  </si>
+  <si>
+    <t>X1810301131550959</t>
+  </si>
+  <si>
+    <t>X1810301131581006</t>
+  </si>
+  <si>
+    <t>X1810301131140402</t>
+  </si>
+  <si>
+    <t>X1810301131160438</t>
+  </si>
+  <si>
+    <t>X1810301132041078</t>
+  </si>
+  <si>
+    <t>X1810301131440805</t>
+  </si>
+  <si>
+    <t>X1810301132251359</t>
+  </si>
+  <si>
+    <t>X1810301132181277</t>
+  </si>
+  <si>
+    <t>X1810301132371522</t>
+  </si>
+  <si>
+    <t>X1810301132331468</t>
+  </si>
+  <si>
+    <t>X1810301132081132</t>
+  </si>
+  <si>
+    <t>X1810301132211313</t>
+  </si>
+  <si>
+    <t>X1810301131230531</t>
+  </si>
+  <si>
+    <t>X1810301132161241</t>
+  </si>
+  <si>
+    <t>X1810301131470850</t>
+  </si>
+  <si>
+    <t>X1810301131070309</t>
+  </si>
+  <si>
+    <t>X1810301132381531</t>
+  </si>
+  <si>
+    <t>X1810301132401558</t>
+  </si>
+  <si>
+    <t>X1810301131370713</t>
+  </si>
+  <si>
+    <t>X1810301132501694</t>
+  </si>
+  <si>
+    <t>X1810191345401866</t>
+  </si>
+  <si>
+    <t>X1810181552557196</t>
+  </si>
+  <si>
+    <t>X1810191252511466</t>
+  </si>
+  <si>
+    <t>X1810301132221322</t>
+  </si>
+  <si>
+    <t>X1810191248071418</t>
+  </si>
+  <si>
+    <t>X1810301132011042</t>
+  </si>
+  <si>
+    <t>X1810191228321130</t>
+  </si>
+  <si>
+    <t>X1810301131500895</t>
+  </si>
+  <si>
+    <t>X1810191255141492</t>
+  </si>
+  <si>
+    <t>X1810191608239949</t>
+  </si>
+  <si>
+    <t>X1810191610000163</t>
+  </si>
+  <si>
+    <t>X1810191605589567</t>
+  </si>
+  <si>
+    <t>X1810191609160054</t>
+  </si>
+  <si>
+    <t>X1810191607009778</t>
+  </si>
+  <si>
+    <t>X1810191604539433</t>
+  </si>
+  <si>
+    <t>X1810191251291453</t>
+  </si>
+  <si>
+    <t>X1810301110163467</t>
+  </si>
+  <si>
+    <t>X1810181441346944</t>
+  </si>
+  <si>
+    <t>X1810301132481667</t>
+  </si>
+  <si>
+    <t>X1810181549286796</t>
+  </si>
+  <si>
+    <t>X1810301132361504</t>
+  </si>
+  <si>
+    <t>X1810301132411576</t>
+  </si>
+  <si>
+    <t>X1810301131280605</t>
+  </si>
+  <si>
+    <t>X1810301132331459</t>
+  </si>
+  <si>
+    <t>X1810301132471658</t>
+  </si>
+  <si>
+    <t>X1810301131390740</t>
+  </si>
+  <si>
+    <t>X1810191456203222</t>
+  </si>
+  <si>
+    <t>X1810191501193616</t>
+  </si>
+  <si>
+    <t>X1810191454343209</t>
+  </si>
+  <si>
+    <t>X1810191500173352</t>
+  </si>
+  <si>
+    <t>X1810191452413183</t>
+  </si>
+  <si>
+    <t>X1810191453423196</t>
+  </si>
+  <si>
+    <t>X1810191458463235</t>
+  </si>
+  <si>
+    <t>X1810301131280596</t>
+  </si>
+  <si>
+    <t>X1811011359441775</t>
+  </si>
+  <si>
+    <t>X1811011400242030</t>
+  </si>
+  <si>
+    <t>X1810301131150420</t>
+  </si>
+  <si>
+    <t>X1810191231331159</t>
+  </si>
+  <si>
+    <t>X1811021557024866</t>
+  </si>
+  <si>
+    <t>X1811021610435409</t>
+  </si>
+  <si>
+    <t>X1811021600175029</t>
+  </si>
+  <si>
+    <t>X1811021609395321</t>
+  </si>
+  <si>
+    <t>X1811021608035231</t>
+  </si>
+  <si>
+    <t>X1811021603385144</t>
+  </si>
+  <si>
+    <t>X1811021601335099</t>
+  </si>
+  <si>
+    <t>X1810301132151232</t>
+  </si>
+  <si>
+    <t>X1810301131180457</t>
+  </si>
+  <si>
+    <t>X1810301132281396</t>
+  </si>
+  <si>
+    <t>X1810311727264549</t>
+  </si>
+  <si>
+    <t>X1810311735247059</t>
+  </si>
+  <si>
+    <t>X1810311731425893</t>
+  </si>
+  <si>
+    <t>X1810311736037077</t>
+  </si>
+  <si>
+    <t>X1810311736577095</t>
+  </si>
+  <si>
+    <t>X1812181434298228</t>
+  </si>
+  <si>
+    <t>X1810301132051096</t>
+  </si>
+  <si>
+    <t>X1810301123405354</t>
+  </si>
+  <si>
+    <t>X1810301131430796</t>
+  </si>
+  <si>
+    <t>X1811051433319666</t>
+  </si>
+  <si>
+    <t>X1811051435029685</t>
+  </si>
+  <si>
+    <t>X1810191430402953</t>
+  </si>
+  <si>
+    <t>X1810301131520922</t>
+  </si>
+  <si>
+    <t>X1810301131480868</t>
+  </si>
+  <si>
+    <t>X1810301132001033</t>
+  </si>
+  <si>
+    <t>X1810191233041172</t>
+  </si>
+  <si>
+    <t>X1810191144430930</t>
+  </si>
+  <si>
+    <t>X1810181657316510</t>
+  </si>
+  <si>
+    <t>X1810181659146918</t>
+  </si>
+  <si>
+    <t>X1811021700546274</t>
+  </si>
+  <si>
+    <t>X1811021659206100</t>
+  </si>
+  <si>
+    <t>X1811021633215917</t>
+  </si>
+  <si>
+    <t>X1811021658136078</t>
+  </si>
+  <si>
+    <t>X1811021640276013</t>
+  </si>
+  <si>
+    <t>X1811021639125986</t>
+  </si>
+  <si>
+    <t>X1811021637005956</t>
+  </si>
+  <si>
+    <t>X1810301131460832</t>
+  </si>
+  <si>
+    <t>X1810301132351486</t>
+  </si>
+  <si>
+    <t>X1810301132231340</t>
+  </si>
+  <si>
+    <t>X1810301131410768</t>
+  </si>
+  <si>
+    <t>X1811021150438438</t>
+  </si>
+  <si>
+    <t>X1810301131440814</t>
+  </si>
+  <si>
+    <t>X1812121355523090</t>
+  </si>
+  <si>
+    <t>X1812121413393736</t>
+  </si>
+  <si>
+    <t>X1812121428234027</t>
+  </si>
+  <si>
+    <t>X1810301132391549</t>
+  </si>
+  <si>
+    <t>X1810301131450823</t>
+  </si>
+  <si>
+    <t>X1810301002485852</t>
+  </si>
+  <si>
+    <t>X1810301131320650</t>
+  </si>
+  <si>
+    <t>X1810181555307586</t>
+  </si>
+  <si>
+    <t>X1810181432385705</t>
+  </si>
+  <si>
+    <t>X1810191701264398</t>
+  </si>
+  <si>
+    <t>X1812191034330078</t>
+  </si>
+  <si>
+    <t>X1812191032109619</t>
+  </si>
+  <si>
+    <t>X1812191025068291</t>
+  </si>
+  <si>
+    <t>X1812191006542847</t>
+  </si>
+  <si>
+    <t>X1812191028338901</t>
+  </si>
+  <si>
+    <t>X1810181453257939</t>
   </si>
 </sst>
 </file>
@@ -553,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,6 +1337,1091 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>主键</t>
   </si>
@@ -110,679 +110,499 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1810191415412827</t>
-  </si>
-  <si>
-    <t>X1810191348181914</t>
-  </si>
-  <si>
-    <t>X1810191353541992</t>
-  </si>
-  <si>
-    <t>X1810191350441957</t>
-  </si>
-  <si>
-    <t>X1810191349201928</t>
-  </si>
-  <si>
-    <t>X1810191402392610</t>
-  </si>
-  <si>
-    <t>X1810191407302686</t>
-  </si>
-  <si>
-    <t>X1810191414392796</t>
-  </si>
-  <si>
-    <t>X1810191413392783</t>
-  </si>
-  <si>
-    <t>X1810191411362741</t>
-  </si>
-  <si>
-    <t>X1810191358042034</t>
-  </si>
-  <si>
-    <t>X1810191347141891</t>
-  </si>
-  <si>
-    <t>X1810191408302699</t>
-  </si>
-  <si>
-    <t>X1810191412252769</t>
-  </si>
-  <si>
-    <t>X1810191406262669</t>
-  </si>
-  <si>
-    <t>X1810191404222640</t>
-  </si>
-  <si>
-    <t>X1810191409272712</t>
-  </si>
-  <si>
-    <t>X1810191410282728</t>
-  </si>
-  <si>
-    <t>X1810191359242051</t>
-  </si>
-  <si>
-    <t>X1810191400212124</t>
-  </si>
-  <si>
-    <t>X1810191401312509</t>
-  </si>
-  <si>
-    <t>X1810191352131977</t>
-  </si>
-  <si>
-    <t>X1810191355362006</t>
-  </si>
-  <si>
-    <t>X1810301131580997</t>
-  </si>
-  <si>
-    <t>X1810301132141223</t>
-  </si>
-  <si>
-    <t>X1810301131310632</t>
-  </si>
-  <si>
-    <t>X1810301132291414</t>
-  </si>
-  <si>
-    <t>X1810301132041087</t>
-  </si>
-  <si>
-    <t>X1810301132311432</t>
-  </si>
-  <si>
-    <t>X1810301131330668</t>
-  </si>
-  <si>
-    <t>X1810301131480859</t>
-  </si>
-  <si>
-    <t>X1810301131340677</t>
-  </si>
-  <si>
-    <t>X1810301131100355</t>
-  </si>
-  <si>
-    <t>X1810301132431594</t>
-  </si>
-  <si>
-    <t>X1810301132221331</t>
-  </si>
-  <si>
-    <t>X1810301132001024</t>
-  </si>
-  <si>
-    <t>X1810301131350686</t>
-  </si>
-  <si>
-    <t>X1810301131270586</t>
-  </si>
-  <si>
-    <t>X1810301132451630</t>
-  </si>
-  <si>
-    <t>X1810301131560977</t>
-  </si>
-  <si>
-    <t>X1810301132271387</t>
-  </si>
-  <si>
-    <t>X1810301131000236</t>
-  </si>
-  <si>
-    <t>X1810301131490877</t>
-  </si>
-  <si>
-    <t>X1810301132281405</t>
-  </si>
-  <si>
-    <t>X1810301131530931</t>
-  </si>
-  <si>
-    <t>X1810301131360704</t>
-  </si>
-  <si>
-    <t>X1810301131500886</t>
-  </si>
-  <si>
-    <t>X1810301131050281</t>
-  </si>
-  <si>
-    <t>X1810301131591015</t>
-  </si>
-  <si>
-    <t>X1810301132061114</t>
-  </si>
-  <si>
-    <t>X1810301131540950</t>
-  </si>
-  <si>
-    <t>X1810301131570986</t>
-  </si>
-  <si>
-    <t>X1810301131520913</t>
-  </si>
-  <si>
-    <t>X1810301131120384</t>
-  </si>
-  <si>
-    <t>X1810301132431603</t>
-  </si>
-  <si>
-    <t>X1810301131400759</t>
-  </si>
-  <si>
-    <t>X1810301131000245</t>
-  </si>
-  <si>
-    <t>X1810301132441612</t>
-  </si>
-  <si>
-    <t>X1810301132451621</t>
-  </si>
-  <si>
-    <t>X1810301131170447</t>
-  </si>
-  <si>
-    <t>X1810301131300623</t>
-  </si>
-  <si>
-    <t>X1810301132461640</t>
-  </si>
-  <si>
-    <t>X1810301132471649</t>
-  </si>
-  <si>
-    <t>X1810301132261377</t>
-  </si>
-  <si>
-    <t>X1810301132371513</t>
-  </si>
-  <si>
-    <t>X1810301132111178</t>
-  </si>
-  <si>
-    <t>X1810301132081142</t>
-  </si>
-  <si>
-    <t>X1810301131250559</t>
-  </si>
-  <si>
-    <t>X1810301131160429</t>
-  </si>
-  <si>
-    <t>X1810301131100346</t>
-  </si>
-  <si>
-    <t>X1810301131260577</t>
-  </si>
-  <si>
-    <t>X1810301132261368</t>
-  </si>
-  <si>
-    <t>X1810301131030254</t>
-  </si>
-  <si>
-    <t>X1810301131040272</t>
-  </si>
-  <si>
-    <t>X1810301131370722</t>
-  </si>
-  <si>
-    <t>X1810301131390749</t>
-  </si>
-  <si>
-    <t>X1810301131540940</t>
-  </si>
-  <si>
-    <t>X1810301131420777</t>
-  </si>
-  <si>
-    <t>X1810301131200485</t>
-  </si>
-  <si>
-    <t>X1810301131120375</t>
-  </si>
-  <si>
-    <t>X1810301131140411</t>
-  </si>
-  <si>
-    <t>X1810301131350695</t>
-  </si>
-  <si>
-    <t>X1810301132071123</t>
-  </si>
-  <si>
-    <t>X1810301130590227</t>
-  </si>
-  <si>
-    <t>X1810301132311441</t>
-  </si>
-  <si>
-    <t>X1810301132411567</t>
-  </si>
-  <si>
-    <t>X1810301132021060</t>
-  </si>
-  <si>
-    <t>X1810301131080318</t>
-  </si>
-  <si>
-    <t>X1810301131060290</t>
-  </si>
-  <si>
-    <t>X1810301132101169</t>
-  </si>
-  <si>
-    <t>X1810301132091151</t>
-  </si>
-  <si>
-    <t>X1810301132341477</t>
-  </si>
-  <si>
-    <t>X1810301132181268</t>
-  </si>
-  <si>
-    <t>X1810301132321450</t>
-  </si>
-  <si>
-    <t>X1810301131220513</t>
-  </si>
-  <si>
-    <t>X1810301132021051</t>
-  </si>
-  <si>
-    <t>X1810301131040263</t>
-  </si>
-  <si>
-    <t>X1810301131210503</t>
-  </si>
-  <si>
-    <t>X1810301131060299</t>
-  </si>
-  <si>
-    <t>X1810301132421585</t>
-  </si>
-  <si>
-    <t>X1810301132191286</t>
-  </si>
-  <si>
-    <t>X1810301131460841</t>
-  </si>
-  <si>
-    <t>X1810301131090337</t>
-  </si>
-  <si>
-    <t>X1810301131080328</t>
-  </si>
-  <si>
-    <t>X1810301132301423</t>
-  </si>
-  <si>
-    <t>X1810301132101160</t>
-  </si>
-  <si>
-    <t>X1810301132391540</t>
-  </si>
-  <si>
-    <t>X1810301131560968</t>
-  </si>
-  <si>
-    <t>X1810301131510904</t>
-  </si>
-  <si>
-    <t>X1810301131550959</t>
-  </si>
-  <si>
-    <t>X1810301131581006</t>
-  </si>
-  <si>
-    <t>X1810301131140402</t>
-  </si>
-  <si>
-    <t>X1810301131160438</t>
-  </si>
-  <si>
-    <t>X1810301132041078</t>
-  </si>
-  <si>
-    <t>X1810301131440805</t>
-  </si>
-  <si>
-    <t>X1810301132251359</t>
-  </si>
-  <si>
-    <t>X1810301132181277</t>
-  </si>
-  <si>
-    <t>X1810301132371522</t>
-  </si>
-  <si>
-    <t>X1810301132331468</t>
-  </si>
-  <si>
-    <t>X1810301132081132</t>
-  </si>
-  <si>
-    <t>X1810301132211313</t>
-  </si>
-  <si>
-    <t>X1810301131230531</t>
-  </si>
-  <si>
-    <t>X1810301132161241</t>
-  </si>
-  <si>
-    <t>X1810301131470850</t>
-  </si>
-  <si>
-    <t>X1810301131070309</t>
-  </si>
-  <si>
-    <t>X1810301132381531</t>
-  </si>
-  <si>
-    <t>X1810301132401558</t>
-  </si>
-  <si>
-    <t>X1810301131370713</t>
-  </si>
-  <si>
-    <t>X1810301132501694</t>
-  </si>
-  <si>
-    <t>X1810191345401866</t>
-  </si>
-  <si>
-    <t>X1810181552557196</t>
-  </si>
-  <si>
-    <t>X1810191252511466</t>
-  </si>
-  <si>
-    <t>X1810301132221322</t>
-  </si>
-  <si>
-    <t>X1810191248071418</t>
-  </si>
-  <si>
-    <t>X1810301132011042</t>
-  </si>
-  <si>
-    <t>X1810191228321130</t>
-  </si>
-  <si>
-    <t>X1810301131500895</t>
-  </si>
-  <si>
-    <t>X1810191255141492</t>
-  </si>
-  <si>
-    <t>X1810191608239949</t>
-  </si>
-  <si>
-    <t>X1810191610000163</t>
-  </si>
-  <si>
-    <t>X1810191605589567</t>
-  </si>
-  <si>
-    <t>X1810191609160054</t>
-  </si>
-  <si>
-    <t>X1810191607009778</t>
-  </si>
-  <si>
-    <t>X1810191604539433</t>
-  </si>
-  <si>
-    <t>X1810191251291453</t>
-  </si>
-  <si>
-    <t>X1810301110163467</t>
-  </si>
-  <si>
-    <t>X1810181441346944</t>
-  </si>
-  <si>
-    <t>X1810301132481667</t>
-  </si>
-  <si>
-    <t>X1810181549286796</t>
-  </si>
-  <si>
-    <t>X1810301132361504</t>
-  </si>
-  <si>
-    <t>X1810301132411576</t>
-  </si>
-  <si>
-    <t>X1810301131280605</t>
-  </si>
-  <si>
-    <t>X1810301132331459</t>
-  </si>
-  <si>
-    <t>X1810301132471658</t>
-  </si>
-  <si>
-    <t>X1810301131390740</t>
-  </si>
-  <si>
-    <t>X1810191456203222</t>
-  </si>
-  <si>
-    <t>X1810191501193616</t>
-  </si>
-  <si>
-    <t>X1810191454343209</t>
-  </si>
-  <si>
-    <t>X1810191500173352</t>
-  </si>
-  <si>
-    <t>X1810191452413183</t>
-  </si>
-  <si>
-    <t>X1810191453423196</t>
-  </si>
-  <si>
-    <t>X1810191458463235</t>
-  </si>
-  <si>
-    <t>X1810301131280596</t>
-  </si>
-  <si>
-    <t>X1811011359441775</t>
-  </si>
-  <si>
-    <t>X1811011400242030</t>
-  </si>
-  <si>
-    <t>X1810301131150420</t>
-  </si>
-  <si>
-    <t>X1810191231331159</t>
-  </si>
-  <si>
-    <t>X1811021557024866</t>
-  </si>
-  <si>
-    <t>X1811021610435409</t>
-  </si>
-  <si>
-    <t>X1811021600175029</t>
-  </si>
-  <si>
-    <t>X1811021609395321</t>
-  </si>
-  <si>
-    <t>X1811021608035231</t>
-  </si>
-  <si>
-    <t>X1811021603385144</t>
-  </si>
-  <si>
-    <t>X1811021601335099</t>
-  </si>
-  <si>
-    <t>X1810301132151232</t>
-  </si>
-  <si>
-    <t>X1810301131180457</t>
-  </si>
-  <si>
-    <t>X1810301132281396</t>
-  </si>
-  <si>
-    <t>X1810311727264549</t>
-  </si>
-  <si>
-    <t>X1810311735247059</t>
-  </si>
-  <si>
-    <t>X1810311731425893</t>
-  </si>
-  <si>
-    <t>X1810311736037077</t>
-  </si>
-  <si>
-    <t>X1810311736577095</t>
-  </si>
-  <si>
-    <t>X1812181434298228</t>
-  </si>
-  <si>
-    <t>X1810301132051096</t>
-  </si>
-  <si>
-    <t>X1810301123405354</t>
-  </si>
-  <si>
-    <t>X1810301131430796</t>
-  </si>
-  <si>
-    <t>X1811051433319666</t>
-  </si>
-  <si>
-    <t>X1811051435029685</t>
-  </si>
-  <si>
-    <t>X1810191430402953</t>
-  </si>
-  <si>
-    <t>X1810301131520922</t>
-  </si>
-  <si>
-    <t>X1810301131480868</t>
-  </si>
-  <si>
-    <t>X1810301132001033</t>
-  </si>
-  <si>
-    <t>X1810191233041172</t>
-  </si>
-  <si>
-    <t>X1810191144430930</t>
-  </si>
-  <si>
-    <t>X1810181657316510</t>
-  </si>
-  <si>
-    <t>X1810181659146918</t>
-  </si>
-  <si>
-    <t>X1811021700546274</t>
-  </si>
-  <si>
-    <t>X1811021659206100</t>
-  </si>
-  <si>
-    <t>X1811021633215917</t>
-  </si>
-  <si>
-    <t>X1811021658136078</t>
-  </si>
-  <si>
-    <t>X1811021640276013</t>
-  </si>
-  <si>
-    <t>X1811021639125986</t>
-  </si>
-  <si>
-    <t>X1811021637005956</t>
-  </si>
-  <si>
-    <t>X1810301131460832</t>
-  </si>
-  <si>
-    <t>X1810301132351486</t>
-  </si>
-  <si>
-    <t>X1810301132231340</t>
-  </si>
-  <si>
-    <t>X1810301131410768</t>
-  </si>
-  <si>
-    <t>X1811021150438438</t>
-  </si>
-  <si>
-    <t>X1810301131440814</t>
-  </si>
-  <si>
-    <t>X1812121355523090</t>
-  </si>
-  <si>
-    <t>X1812121413393736</t>
-  </si>
-  <si>
-    <t>X1812121428234027</t>
-  </si>
-  <si>
-    <t>X1810301132391549</t>
-  </si>
-  <si>
-    <t>X1810301131450823</t>
-  </si>
-  <si>
-    <t>X1810301002485852</t>
-  </si>
-  <si>
-    <t>X1810301131320650</t>
-  </si>
-  <si>
-    <t>X1810181555307586</t>
-  </si>
-  <si>
-    <t>X1810181432385705</t>
-  </si>
-  <si>
-    <t>X1810191701264398</t>
-  </si>
-  <si>
-    <t>X1812191034330078</t>
-  </si>
-  <si>
-    <t>X1812191032109619</t>
-  </si>
-  <si>
-    <t>X1812191025068291</t>
-  </si>
-  <si>
-    <t>X1812191006542847</t>
-  </si>
-  <si>
-    <t>X1812191028338901</t>
-  </si>
-  <si>
-    <t>X1810181453257939</t>
+    <t>X1811281638360165</t>
+  </si>
+  <si>
+    <t>X1811281706041098</t>
+  </si>
+  <si>
+    <t>X1812031703289461</t>
+  </si>
+  <si>
+    <t>X1811281521361193</t>
+  </si>
+  <si>
+    <t>X1811281428378687</t>
+  </si>
+  <si>
+    <t>X1812031750201242</t>
+  </si>
+  <si>
+    <t>X1811281414127554</t>
+  </si>
+  <si>
+    <t>X1811281654040043</t>
+  </si>
+  <si>
+    <t>X1811281603344388</t>
+  </si>
+  <si>
+    <t>X1812031740070146</t>
+  </si>
+  <si>
+    <t>X1811281610554723</t>
+  </si>
+  <si>
+    <t>X1811281646200007</t>
+  </si>
+  <si>
+    <t>X1811281529162206</t>
+  </si>
+  <si>
+    <t>X1811281710121204</t>
+  </si>
+  <si>
+    <t>X1811281623225190</t>
+  </si>
+  <si>
+    <t>X1811281434108762</t>
+  </si>
+  <si>
+    <t>X1812031707300223</t>
+  </si>
+  <si>
+    <t>X1811281713071308</t>
+  </si>
+  <si>
+    <t>X1901311424326905</t>
+  </si>
+  <si>
+    <t>X1811281424548586</t>
+  </si>
+  <si>
+    <t>X1811281634390129</t>
+  </si>
+  <si>
+    <t>X1812031726436690</t>
+  </si>
+  <si>
+    <t>X1812031712482907</t>
+  </si>
+  <si>
+    <t>X1811281658260063</t>
+  </si>
+  <si>
+    <t>X1811281642080199</t>
+  </si>
+  <si>
+    <t>X1811281454039051</t>
+  </si>
+  <si>
+    <t>X1812031756421354</t>
+  </si>
+  <si>
+    <t>X1811281626500006</t>
+  </si>
+  <si>
+    <t>X1811281552423792</t>
+  </si>
+  <si>
+    <t>X1812031653388669</t>
+  </si>
+  <si>
+    <t>X1812031730067287</t>
+  </si>
+  <si>
+    <t>X1811281457479111</t>
+  </si>
+  <si>
+    <t>X1901311446007300</t>
+  </si>
+  <si>
+    <t>X1812031643237132</t>
+  </si>
+  <si>
+    <t>X1811281418358060</t>
+  </si>
+  <si>
+    <t>X1811281631570076</t>
+  </si>
+  <si>
+    <t>X1811281557093831</t>
+  </si>
+  <si>
+    <t>X1812031621147124</t>
+  </si>
+  <si>
+    <t>X1811281619085089</t>
+  </si>
+  <si>
+    <t>X1811281717041393</t>
+  </si>
+  <si>
+    <t>X1811281544072843</t>
+  </si>
+  <si>
+    <t>X1811281443408864</t>
+  </si>
+  <si>
+    <t>X1811281405516421</t>
+  </si>
+  <si>
+    <t>X1811281505529784</t>
+  </si>
+  <si>
+    <t>X1811281606094486</t>
+  </si>
+  <si>
+    <t>X1804111356234390</t>
+  </si>
+  <si>
+    <t>X1806111507399135</t>
+  </si>
+  <si>
+    <t>X1901091622182590</t>
+  </si>
+  <si>
+    <t>X1901091409026813</t>
+  </si>
+  <si>
+    <t>X1901091645245063</t>
+  </si>
+  <si>
+    <t>X1901091615301094</t>
+  </si>
+  <si>
+    <t>X1901091432448011</t>
+  </si>
+  <si>
+    <t>X1901091641595025</t>
+  </si>
+  <si>
+    <t>X1901091643505046</t>
+  </si>
+  <si>
+    <t>X1901091450588579</t>
+  </si>
+  <si>
+    <t>X1901091511151415</t>
+  </si>
+  <si>
+    <t>X1901091452208600</t>
+  </si>
+  <si>
+    <t>X1901091458418661</t>
+  </si>
+  <si>
+    <t>X1901091521064899</t>
+  </si>
+  <si>
+    <t>X1901091641144997</t>
+  </si>
+  <si>
+    <t>X1901091442228129</t>
+  </si>
+  <si>
+    <t>X1901091418447315</t>
+  </si>
+  <si>
+    <t>X1901091646365078</t>
+  </si>
+  <si>
+    <t>X1901091425237724</t>
+  </si>
+  <si>
+    <t>X1901091620482034</t>
+  </si>
+  <si>
+    <t>X1901091416417179</t>
+  </si>
+  <si>
+    <t>X1901091415187146</t>
+  </si>
+  <si>
+    <t>X1901091430597802</t>
+  </si>
+  <si>
+    <t>X1901091525266711</t>
+  </si>
+  <si>
+    <t>X1901091651045154</t>
+  </si>
+  <si>
+    <t>X1901091423367584</t>
+  </si>
+  <si>
+    <t>X1901091524126473</t>
+  </si>
+  <si>
+    <t>X1901091657345262</t>
+  </si>
+  <si>
+    <t>X1901091656305241</t>
+  </si>
+  <si>
+    <t>X1901091655265218</t>
+  </si>
+  <si>
+    <t>X1901091447178288</t>
+  </si>
+  <si>
+    <t>X1901091457208642</t>
+  </si>
+  <si>
+    <t>X1901091700355514</t>
+  </si>
+  <si>
+    <t>X1901091437318083</t>
+  </si>
+  <si>
+    <t>X1901091440578103</t>
+  </si>
+  <si>
+    <t>X1901091435368064</t>
+  </si>
+  <si>
+    <t>X1901091428567777</t>
+  </si>
+  <si>
+    <t>X1901091533097959</t>
+  </si>
+  <si>
+    <t>X1901091659065284</t>
+  </si>
+  <si>
+    <t>X1901091405086612</t>
+  </si>
+  <si>
+    <t>X1901091445358231</t>
+  </si>
+  <si>
+    <t>X1901091636244970</t>
+  </si>
+  <si>
+    <t>X1901091635144947</t>
+  </si>
+  <si>
+    <t>X1901091407106719</t>
+  </si>
+  <si>
+    <t>X1901091522546254</t>
+  </si>
+  <si>
+    <t>X1901290931566654</t>
+  </si>
+  <si>
+    <t>X1901291343441487</t>
+  </si>
+  <si>
+    <t>X1901290922426620</t>
+  </si>
+  <si>
+    <t>X1901291350281529</t>
+  </si>
+  <si>
+    <t>X1901291402301841</t>
+  </si>
+  <si>
+    <t>X1901290927056639</t>
+  </si>
+  <si>
+    <t>X1901291356041550</t>
+  </si>
+  <si>
+    <t>X1901300914099857</t>
+  </si>
+  <si>
+    <t>X1901291158270463</t>
+  </si>
+  <si>
+    <t>X1901290920476599</t>
+  </si>
+  <si>
+    <t>X1901300927481461</t>
+  </si>
+  <si>
+    <t>X1901021601209799</t>
+  </si>
+  <si>
+    <t>X1902141534453822</t>
+  </si>
+  <si>
+    <t>X1901021646321021</t>
+  </si>
+  <si>
+    <t>X1901021412450855</t>
+  </si>
+  <si>
+    <t>X1901021556058965</t>
+  </si>
+  <si>
+    <t>X1901021433190985</t>
+  </si>
+  <si>
+    <t>X1901021618352862</t>
+  </si>
+  <si>
+    <t>X1901021513062214</t>
+  </si>
+  <si>
+    <t>X1901021552287527</t>
+  </si>
+  <si>
+    <t>X1901021244589154</t>
+  </si>
+  <si>
+    <t>X1901021408340408</t>
+  </si>
+  <si>
+    <t>X1902141542485672</t>
+  </si>
+  <si>
+    <t>X1901021622233165</t>
+  </si>
+  <si>
+    <t>X1901021615372282</t>
+  </si>
+  <si>
+    <t>X1901021358540201</t>
+  </si>
+  <si>
+    <t>X1901021633487227</t>
+  </si>
+  <si>
+    <t>X1901021640288905</t>
+  </si>
+  <si>
+    <t>X1901021505501414</t>
+  </si>
+  <si>
+    <t>X1901021630477175</t>
+  </si>
+  <si>
+    <t>X1901021605160187</t>
+  </si>
+  <si>
+    <t>X1901021610000593</t>
+  </si>
+  <si>
+    <t>X1807171528575855</t>
+  </si>
+  <si>
+    <t>X1807181027443887</t>
+  </si>
+  <si>
+    <t>X1807181024163764</t>
+  </si>
+  <si>
+    <t>X1901221416232187</t>
+  </si>
+  <si>
+    <t>X1901171109267482</t>
+  </si>
+  <si>
+    <t>X1805241048330745</t>
+  </si>
+  <si>
+    <t>X1805241040310718</t>
+  </si>
+  <si>
+    <t>X1901171105326902</t>
+  </si>
+  <si>
+    <t>X1901211057080456</t>
+  </si>
+  <si>
+    <t>X1901171114428411</t>
+  </si>
+  <si>
+    <t>X1901211603170361</t>
+  </si>
+  <si>
+    <t>X1901211113201472</t>
+  </si>
+  <si>
+    <t>X1807021436302688</t>
+  </si>
+  <si>
+    <t>X1901211031390991</t>
+  </si>
+  <si>
+    <t>X1901211029000963</t>
+  </si>
+  <si>
+    <t>X1901171551158956</t>
+  </si>
+  <si>
+    <t>X1901211101390861</t>
+  </si>
+  <si>
+    <t>X1901211418025843</t>
+  </si>
+  <si>
+    <t>X1805241131085344</t>
+  </si>
+  <si>
+    <t>X1805241054290770</t>
+  </si>
+  <si>
+    <t>X1901171046185462</t>
+  </si>
+  <si>
+    <t>X1805241129285139</t>
+  </si>
+  <si>
+    <t>X1901211156112088</t>
+  </si>
+  <si>
+    <t>X1806121133235307</t>
+  </si>
+  <si>
+    <t>X1901171657194277</t>
+  </si>
+  <si>
+    <t>X1901211116571549</t>
+  </si>
+  <si>
+    <t>X1901171651024251</t>
+  </si>
+  <si>
+    <t>X1901211612401105</t>
+  </si>
+  <si>
+    <t>X1901211556039422</t>
+  </si>
+  <si>
+    <t>X1901211039230116</t>
+  </si>
+  <si>
+    <t>X1901221606224500</t>
+  </si>
+  <si>
+    <t>X1901221432424767</t>
+  </si>
+  <si>
+    <t>X1805241036250582</t>
+  </si>
+  <si>
+    <t>X1805241044050726</t>
+  </si>
+  <si>
+    <t>X1805241032340570</t>
+  </si>
+  <si>
+    <t>X1805241046100736</t>
+  </si>
+  <si>
+    <t>X1804201625543577</t>
+  </si>
+  <si>
+    <t>X1804201617332995</t>
+  </si>
+  <si>
+    <t>X1804201614582346</t>
+  </si>
+  <si>
+    <t>X1804201612500924</t>
+  </si>
+  <si>
+    <t>X1804201620513326</t>
+  </si>
+  <si>
+    <t>X1804201624183470</t>
+  </si>
+  <si>
+    <t>X1812120953000482</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W226"/>
+  <dimension ref="A1:W166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A226"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2122,306 +1942,6 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>247</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>主键</t>
   </si>
@@ -110,22 +110,112 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1902130953145702</t>
-  </si>
-  <si>
-    <t>X1902131014497504</t>
-  </si>
-  <si>
-    <t>X1902131004086582</t>
-  </si>
-  <si>
-    <t>X1902131009097130</t>
-  </si>
-  <si>
-    <t>X1902130956385731</t>
-  </si>
-  <si>
-    <t>X1902130948455522</t>
+    <t>X1801182215124591</t>
+  </si>
+  <si>
+    <t>X1801182215214666</t>
+  </si>
+  <si>
+    <t>X1801182215014501</t>
+  </si>
+  <si>
+    <t>X1801182215244696</t>
+  </si>
+  <si>
+    <t>X1801182215174631</t>
+  </si>
+  <si>
+    <t>X1801182215044516</t>
+  </si>
+  <si>
+    <t>X1801182211252618</t>
+  </si>
+  <si>
+    <t>X1801182215144606</t>
+  </si>
+  <si>
+    <t>X1801182211252613</t>
+  </si>
+  <si>
+    <t>X1801182215204656</t>
+  </si>
+  <si>
+    <t>X1801182215144601</t>
+  </si>
+  <si>
+    <t>X1801182215184636</t>
+  </si>
+  <si>
+    <t>X1801182214594491</t>
+  </si>
+  <si>
+    <t>X1801182215024506</t>
+  </si>
+  <si>
+    <t>X1801182215244691</t>
+  </si>
+  <si>
+    <t>X1801182215094566</t>
+  </si>
+  <si>
+    <t>X1801182215094561</t>
+  </si>
+  <si>
+    <t>X1801182215224671</t>
+  </si>
+  <si>
+    <t>X1801182215184641</t>
+  </si>
+  <si>
+    <t>X1801182215224676</t>
+  </si>
+  <si>
+    <t>X1801182215234686</t>
+  </si>
+  <si>
+    <t>X1801182215074546</t>
+  </si>
+  <si>
+    <t>X1801182215084551</t>
+  </si>
+  <si>
+    <t>X1801182215194646</t>
+  </si>
+  <si>
+    <t>X1801182215164621</t>
+  </si>
+  <si>
+    <t>X1801182215134596</t>
+  </si>
+  <si>
+    <t>X1801182215154616</t>
+  </si>
+  <si>
+    <t>X1801182215124586</t>
+  </si>
+  <si>
+    <t>X1801182215114576</t>
+  </si>
+  <si>
+    <t>X1801182215114581</t>
+  </si>
+  <si>
+    <t>X1801182211242608</t>
+  </si>
+  <si>
+    <t>X1801182208210962</t>
+  </si>
+  <si>
+    <t>X1801182215194651</t>
+  </si>
+  <si>
+    <t>X1801182215104571</t>
+  </si>
+  <si>
+    <t>X1801182215204661</t>
+  </si>
+  <si>
+    <t>X1801161137320270</t>
   </si>
 </sst>
 </file>
@@ -547,16 +637,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="2" width="21.109375" customWidth="1"/>
     <col min="4" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.109375" customWidth="1"/>
@@ -644,30 +733,280 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -676,5 +1015,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>主键</t>
   </si>
@@ -110,112 +110,25 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1801182215124591</t>
-  </si>
-  <si>
-    <t>X1801182215214666</t>
-  </si>
-  <si>
-    <t>X1801182215014501</t>
-  </si>
-  <si>
-    <t>X1801182215244696</t>
-  </si>
-  <si>
-    <t>X1801182215174631</t>
-  </si>
-  <si>
-    <t>X1801182215044516</t>
-  </si>
-  <si>
-    <t>X1801182211252618</t>
-  </si>
-  <si>
-    <t>X1801182215144606</t>
-  </si>
-  <si>
-    <t>X1801182211252613</t>
-  </si>
-  <si>
-    <t>X1801182215204656</t>
-  </si>
-  <si>
-    <t>X1801182215144601</t>
-  </si>
-  <si>
-    <t>X1801182215184636</t>
-  </si>
-  <si>
-    <t>X1801182214594491</t>
-  </si>
-  <si>
-    <t>X1801182215024506</t>
-  </si>
-  <si>
-    <t>X1801182215244691</t>
-  </si>
-  <si>
-    <t>X1801182215094566</t>
-  </si>
-  <si>
-    <t>X1801182215094561</t>
-  </si>
-  <si>
-    <t>X1801182215224671</t>
-  </si>
-  <si>
-    <t>X1801182215184641</t>
-  </si>
-  <si>
-    <t>X1801182215224676</t>
-  </si>
-  <si>
-    <t>X1801182215234686</t>
-  </si>
-  <si>
-    <t>X1801182215074546</t>
-  </si>
-  <si>
-    <t>X1801182215084551</t>
-  </si>
-  <si>
-    <t>X1801182215194646</t>
-  </si>
-  <si>
-    <t>X1801182215164621</t>
-  </si>
-  <si>
-    <t>X1801182215134596</t>
-  </si>
-  <si>
-    <t>X1801182215154616</t>
-  </si>
-  <si>
-    <t>X1801182215124586</t>
-  </si>
-  <si>
-    <t>X1801182215114576</t>
-  </si>
-  <si>
-    <t>X1801182215114581</t>
-  </si>
-  <si>
-    <t>X1801182211242608</t>
-  </si>
-  <si>
-    <t>X1801182208210962</t>
-  </si>
-  <si>
-    <t>X1801182215194651</t>
-  </si>
-  <si>
-    <t>X1801182215104571</t>
-  </si>
-  <si>
-    <t>X1801182215204661</t>
-  </si>
-  <si>
-    <t>X1801161137320270</t>
+    <t>X1801261355504238</t>
+  </si>
+  <si>
+    <t>X1812061650360012</t>
+  </si>
+  <si>
+    <t>X1812061650350002</t>
+  </si>
+  <si>
+    <t>X1812061650370025</t>
+  </si>
+  <si>
+    <t>X1812061650370019</t>
+  </si>
+  <si>
+    <t>X1812061650350007</t>
+  </si>
+  <si>
+    <t>X1801261359306558</t>
   </si>
 </sst>
 </file>
@@ -637,15 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.109375" customWidth="1"/>
@@ -733,280 +647,35 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>主键</t>
   </si>
@@ -110,25 +110,13 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1801261355504238</t>
-  </si>
-  <si>
-    <t>X1812061650360012</t>
-  </si>
-  <si>
-    <t>X1812061650350002</t>
-  </si>
-  <si>
-    <t>X1812061650370025</t>
-  </si>
-  <si>
-    <t>X1812061650370019</t>
-  </si>
-  <si>
-    <t>X1812061650350007</t>
-  </si>
-  <si>
-    <t>X1801261359306558</t>
+    <t>X1801261350490181</t>
+  </si>
+  <si>
+    <t>X1801261353382558</t>
+  </si>
+  <si>
+    <t>X1801261353432623</t>
   </si>
 </sst>
 </file>
@@ -550,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,26 +646,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G1">

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>主键</t>
   </si>
@@ -110,13 +110,592 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1801261350490181</t>
-  </si>
-  <si>
-    <t>X1801261353382558</t>
-  </si>
-  <si>
-    <t>X1801261353432623</t>
+    <t>X1903011007595407</t>
+  </si>
+  <si>
+    <t>X1903041708379679</t>
+  </si>
+  <si>
+    <t>X1904091029029091</t>
+  </si>
+  <si>
+    <t>X1904091027159040</t>
+  </si>
+  <si>
+    <t>X1903041715100759</t>
+  </si>
+  <si>
+    <t>X1901151505286059</t>
+  </si>
+  <si>
+    <t>X1903041713390128</t>
+  </si>
+  <si>
+    <t>X1903040936171583</t>
+  </si>
+  <si>
+    <t>X1901151446495178</t>
+  </si>
+  <si>
+    <t>X1904091014206501</t>
+  </si>
+  <si>
+    <t>X1904091013156185</t>
+  </si>
+  <si>
+    <t>X1810181006501920</t>
+  </si>
+  <si>
+    <t>X1904091022538274</t>
+  </si>
+  <si>
+    <t>X1903041709509865</t>
+  </si>
+  <si>
+    <t>X1901151457215589</t>
+  </si>
+  <si>
+    <t>X1904091017156962</t>
+  </si>
+  <si>
+    <t>X1901151448155247</t>
+  </si>
+  <si>
+    <t>X1811021400189114</t>
+  </si>
+  <si>
+    <t>X1901151504206008</t>
+  </si>
+  <si>
+    <t>X1901151501285888</t>
+  </si>
+  <si>
+    <t>X1904091011115998</t>
+  </si>
+  <si>
+    <t>X1901151442255042</t>
+  </si>
+  <si>
+    <t>X1810191002010251</t>
+  </si>
+  <si>
+    <t>X1901041022222771</t>
+  </si>
+  <si>
+    <t>X1901151421264611</t>
+  </si>
+  <si>
+    <t>X1901151449565257</t>
+  </si>
+  <si>
+    <t>X1904091006495877</t>
+  </si>
+  <si>
+    <t>X1904090953335604</t>
+  </si>
+  <si>
+    <t>X1901151419214567</t>
+  </si>
+  <si>
+    <t>X1810291615500531</t>
+  </si>
+  <si>
+    <t>X1901151414364458</t>
+  </si>
+  <si>
+    <t>X1901151430164719</t>
+  </si>
+  <si>
+    <t>X1901151459235680</t>
+  </si>
+  <si>
+    <t>X1901151441054999</t>
+  </si>
+  <si>
+    <t>X1901151443245062</t>
+  </si>
+  <si>
+    <t>X1804021737060449</t>
+  </si>
+  <si>
+    <t>X1804021737010405</t>
+  </si>
+  <si>
+    <t>X1904091004535849</t>
+  </si>
+  <si>
+    <t>X1901151409484255</t>
+  </si>
+  <si>
+    <t>X1901151452465377</t>
+  </si>
+  <si>
+    <t>X1903011009365437</t>
+  </si>
+  <si>
+    <t>X1901151406503895</t>
+  </si>
+  <si>
+    <t>X1809261051240695</t>
+  </si>
+  <si>
+    <t>X1904090949095566</t>
+  </si>
+  <si>
+    <t>X1804021736530361</t>
+  </si>
+  <si>
+    <t>X1804021737060445</t>
+  </si>
+  <si>
+    <t>X1810180843144710</t>
+  </si>
+  <si>
+    <t>X1904090940405546</t>
+  </si>
+  <si>
+    <t>X1805141650340223</t>
+  </si>
+  <si>
+    <t>X1904090936325528</t>
+  </si>
+  <si>
+    <t>X1804021736390244</t>
+  </si>
+  <si>
+    <t>X1804021736450296</t>
+  </si>
+  <si>
+    <t>X1901151436164894</t>
+  </si>
+  <si>
+    <t>X1804021736400248</t>
+  </si>
+  <si>
+    <t>X1811021116296136</t>
+  </si>
+  <si>
+    <t>X1812131352310215</t>
+  </si>
+  <si>
+    <t>X1804021737090465</t>
+  </si>
+  <si>
+    <t>X1812101448287193</t>
+  </si>
+  <si>
+    <t>X1804021737070453</t>
+  </si>
+  <si>
+    <t>X1804021737050441</t>
+  </si>
+  <si>
+    <t>X1901151403573537</t>
+  </si>
+  <si>
+    <t>X1804021737190551</t>
+  </si>
+  <si>
+    <t>X1811141019449799</t>
+  </si>
+  <si>
+    <t>X1901151402233239</t>
+  </si>
+  <si>
+    <t>X1804021737360680</t>
+  </si>
+  <si>
+    <t>X1903040932271533</t>
+  </si>
+  <si>
+    <t>X1804021737190547</t>
+  </si>
+  <si>
+    <t>X1804021737410724</t>
+  </si>
+  <si>
+    <t>X1804021737480780</t>
+  </si>
+  <si>
+    <t>X1903221021434648</t>
+  </si>
+  <si>
+    <t>X1903140917592046</t>
+  </si>
+  <si>
+    <t>X1903110955359690</t>
+  </si>
+  <si>
+    <t>X1903011005325396</t>
+  </si>
+  <si>
+    <t>X1903121634490470</t>
+  </si>
+  <si>
+    <t>X1903121049192594</t>
+  </si>
+  <si>
+    <t>X1904021542191072</t>
+  </si>
+  <si>
+    <t>X1808231842166636</t>
+  </si>
+  <si>
+    <t>X1810170914142805</t>
+  </si>
+  <si>
+    <t>X1812101044464170</t>
+  </si>
+  <si>
+    <t>X1812170951155086</t>
+  </si>
+  <si>
+    <t>X1809211224322613</t>
+  </si>
+  <si>
+    <t>X1803091026170604</t>
+  </si>
+  <si>
+    <t>X1804261453073211</t>
+  </si>
+  <si>
+    <t>X1904021538471031</t>
+  </si>
+  <si>
+    <t>X1807021424442627</t>
+  </si>
+  <si>
+    <t>X1904111538081037</t>
+  </si>
+  <si>
+    <t>X1812101037234060</t>
+  </si>
+  <si>
+    <t>X1811131502110083</t>
+  </si>
+  <si>
+    <t>X1804021736150041</t>
+  </si>
+  <si>
+    <t>X1807250936164752</t>
+  </si>
+  <si>
+    <t>X1809031555098537</t>
+  </si>
+  <si>
+    <t>X1804231516189073</t>
+  </si>
+  <si>
+    <t>X1806271736569989</t>
+  </si>
+  <si>
+    <t>X1901041352583307</t>
+  </si>
+  <si>
+    <t>X1903110953479678</t>
+  </si>
+  <si>
+    <t>X1806271701039716</t>
+  </si>
+  <si>
+    <t>X1901031501116646</t>
+  </si>
+  <si>
+    <t>X1904021530390593</t>
+  </si>
+  <si>
+    <t>X1811221057334098</t>
+  </si>
+  <si>
+    <t>X1902151014451067</t>
+  </si>
+  <si>
+    <t>X1903221456479061</t>
+  </si>
+  <si>
+    <t>X1903110942279629</t>
+  </si>
+  <si>
+    <t>X1903291753514451</t>
+  </si>
+  <si>
+    <t>X1804021736450292</t>
+  </si>
+  <si>
+    <t>X1902141703391935</t>
+  </si>
+  <si>
+    <t>X1809291429431320</t>
+  </si>
+  <si>
+    <t>X1807191757084674</t>
+  </si>
+  <si>
+    <t>X1901171144100525</t>
+  </si>
+  <si>
+    <t>X1903151341544660</t>
+  </si>
+  <si>
+    <t>X1809131127286173</t>
+  </si>
+  <si>
+    <t>X1812130937232585</t>
+  </si>
+  <si>
+    <t>X1811081346042625</t>
+  </si>
+  <si>
+    <t>X1808231138295925</t>
+  </si>
+  <si>
+    <t>X1812111404559365</t>
+  </si>
+  <si>
+    <t>X1901081458490592</t>
+  </si>
+  <si>
+    <t>X1901151044316304</t>
+  </si>
+  <si>
+    <t>X1803091025140085</t>
+  </si>
+  <si>
+    <t>X1901291548195943</t>
+  </si>
+  <si>
+    <t>X1807031054509921</t>
+  </si>
+  <si>
+    <t>X1812211102112978</t>
+  </si>
+  <si>
+    <t>X1812171032125905</t>
+  </si>
+  <si>
+    <t>X1809052125151798</t>
+  </si>
+  <si>
+    <t>X1901041041524677</t>
+  </si>
+  <si>
+    <t>X1811201555505057</t>
+  </si>
+  <si>
+    <t>X1901071714214628</t>
+  </si>
+  <si>
+    <t>X1807021854156208</t>
+  </si>
+  <si>
+    <t>X1811121350470139</t>
+  </si>
+  <si>
+    <t>X1811081502595506</t>
+  </si>
+  <si>
+    <t>X1807031035337712</t>
+  </si>
+  <si>
+    <t>X1812170948165044</t>
+  </si>
+  <si>
+    <t>X1806271734359960</t>
+  </si>
+  <si>
+    <t>X1812190902023144</t>
+  </si>
+  <si>
+    <t>X1811051637243444</t>
+  </si>
+  <si>
+    <t>X1808271802061634</t>
+  </si>
+  <si>
+    <t>X1803091025240172</t>
+  </si>
+  <si>
+    <t>X1811151020316867</t>
+  </si>
+  <si>
+    <t>X1903281537375031</t>
+  </si>
+  <si>
+    <t>X1807021903007081</t>
+  </si>
+  <si>
+    <t>X1901101438215358</t>
+  </si>
+  <si>
+    <t>X1809271635103058</t>
+  </si>
+  <si>
+    <t>X1812101758497825</t>
+  </si>
+  <si>
+    <t>X1902261541432133</t>
+  </si>
+  <si>
+    <t>X1811141524490995</t>
+  </si>
+  <si>
+    <t>X1901171140240508</t>
+  </si>
+  <si>
+    <t>X1810161412320118</t>
+  </si>
+  <si>
+    <t>X1811201445064544</t>
+  </si>
+  <si>
+    <t>X1812171035595932</t>
+  </si>
+  <si>
+    <t>X1901091141154087</t>
+  </si>
+  <si>
+    <t>X1807251611461955</t>
+  </si>
+  <si>
+    <t>X1805181620570453</t>
+  </si>
+  <si>
+    <t>X1902151654545297</t>
+  </si>
+  <si>
+    <t>X1811021122146842</t>
+  </si>
+  <si>
+    <t>X1808211658563349</t>
+  </si>
+  <si>
+    <t>X1810181044097214</t>
+  </si>
+  <si>
+    <t>X1806280846556750</t>
+  </si>
+  <si>
+    <t>X1806271831140481</t>
+  </si>
+  <si>
+    <t>X1811271723193012</t>
+  </si>
+  <si>
+    <t>X1812171012535726</t>
+  </si>
+  <si>
+    <t>X1806271759070148</t>
+  </si>
+  <si>
+    <t>X1803091025310235</t>
+  </si>
+  <si>
+    <t>X1902141656381862</t>
+  </si>
+  <si>
+    <t>X1807121008490607</t>
+  </si>
+  <si>
+    <t>X1805141508462206</t>
+  </si>
+  <si>
+    <t>X1804021737520808</t>
+  </si>
+  <si>
+    <t>X1807021856566233</t>
+  </si>
+  <si>
+    <t>X1810231122025999</t>
+  </si>
+  <si>
+    <t>X1807040912097295</t>
+  </si>
+  <si>
+    <t>X1805111539577562</t>
+  </si>
+  <si>
+    <t>X1807061636000655</t>
+  </si>
+  <si>
+    <t>X1807051410552141</t>
+  </si>
+  <si>
+    <t>X1804021737280615</t>
+  </si>
+  <si>
+    <t>X1804121410213349</t>
+  </si>
+  <si>
+    <t>X1903280854140996</t>
+  </si>
+  <si>
+    <t>X1901041705283376</t>
+  </si>
+  <si>
+    <t>X1901041655222290</t>
+  </si>
+  <si>
+    <t>X1903271139553532</t>
+  </si>
+  <si>
+    <t>X1807161234387048</t>
+  </si>
+  <si>
+    <t>X1902191449571522</t>
+  </si>
+  <si>
+    <t>X1902131754161232</t>
+  </si>
+  <si>
+    <t>X1902211043054558</t>
+  </si>
+  <si>
+    <t>X1810191752267998</t>
+  </si>
+  <si>
+    <t>X1901070932542514</t>
+  </si>
+  <si>
+    <t>X1801121059000349</t>
+  </si>
+  <si>
+    <t>X1810181152275607</t>
+  </si>
+  <si>
+    <t>X1807061732092433</t>
+  </si>
+  <si>
+    <t>X1810181057330036</t>
+  </si>
+  <si>
+    <t>X1901041707363996</t>
+  </si>
+  <si>
+    <t>X1903281516363582</t>
+  </si>
+  <si>
+    <t>X1901041649361928</t>
+  </si>
+  <si>
+    <t>X1903271341144256</t>
+  </si>
+  <si>
+    <t>X1903271747363506</t>
+  </si>
+  <si>
+    <t>X1712200910280021</t>
+  </si>
+  <si>
+    <t>X1803091545420235</t>
+  </si>
+  <si>
+    <t>X1802111040287955</t>
+  </si>
+  <si>
+    <t>X1903180938164761</t>
+  </si>
+  <si>
+    <t>X1903271024537754</t>
   </si>
 </sst>
 </file>
@@ -538,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,17 +1212,982 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Ada.Web/upload/change.xlsx
+++ b/Ada.Web/upload/change.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>主键</t>
   </si>
@@ -110,37 +110,158 @@
     <t>经办媒介</t>
   </si>
   <si>
-    <t>X1801162321064539</t>
-  </si>
-  <si>
-    <t>X1801162321024524</t>
-  </si>
-  <si>
-    <t>X1801162321174584</t>
-  </si>
-  <si>
-    <t>X1801162321074544</t>
-  </si>
-  <si>
-    <t>X1801162321034529</t>
-  </si>
-  <si>
-    <t>X1801162321044534</t>
-  </si>
-  <si>
-    <t>X1801162321114559</t>
-  </si>
-  <si>
-    <t>X1801162321094554</t>
-  </si>
-  <si>
-    <t>X1801162321084549</t>
-  </si>
-  <si>
-    <t>X1801162321014519</t>
-  </si>
-  <si>
-    <t>X1801162321194594</t>
+    <t>X1803091025490377</t>
+  </si>
+  <si>
+    <t>X1903210953261569</t>
+  </si>
+  <si>
+    <t>X1903251436277303</t>
+  </si>
+  <si>
+    <t>X1903221711352008</t>
+  </si>
+  <si>
+    <t>X1903251433207271</t>
+  </si>
+  <si>
+    <t>X1903120952021449</t>
+  </si>
+  <si>
+    <t>X1903210909590722</t>
+  </si>
+  <si>
+    <t>X1806041512591576</t>
+  </si>
+  <si>
+    <t>X1903191744505715</t>
+  </si>
+  <si>
+    <t>X1903191743065701</t>
+  </si>
+  <si>
+    <t>X1903251707518332</t>
+  </si>
+  <si>
+    <t>X1903221706581172</t>
+  </si>
+  <si>
+    <t>X1806051557027384</t>
+  </si>
+  <si>
+    <t>X1903191748395726</t>
+  </si>
+  <si>
+    <t>X1803091025470365</t>
+  </si>
+  <si>
+    <t>X1903251543307966</t>
+  </si>
+  <si>
+    <t>X1805281445320302</t>
+  </si>
+  <si>
+    <t>X1803091025360278</t>
+  </si>
+  <si>
+    <t>X1902210932445752</t>
+  </si>
+  <si>
+    <t>X1803091025370284</t>
+  </si>
+  <si>
+    <t>X1803091025370287</t>
+  </si>
+  <si>
+    <t>X1803091025400311</t>
+  </si>
+  <si>
+    <t>X1903210950401477</t>
+  </si>
+  <si>
+    <t>X1903271453534488</t>
+  </si>
+  <si>
+    <t>X1803091025510395</t>
+  </si>
+  <si>
+    <t>X1803091025480371</t>
+  </si>
+  <si>
+    <t>X1808061352028913</t>
+  </si>
+  <si>
+    <t>X1806061140162342</t>
+  </si>
+  <si>
+    <t>X1803091025590461</t>
+  </si>
+  <si>
+    <t>X1803091025430329</t>
+  </si>
+  <si>
+    <t>X1903251432057259</t>
+  </si>
+  <si>
+    <t>X1803091025400305</t>
+  </si>
+  <si>
+    <t>X1806041504061149</t>
+  </si>
+  <si>
+    <t>X1806041514531770</t>
+  </si>
+  <si>
+    <t>X1803091025490380</t>
+  </si>
+  <si>
+    <t>X1808221716370331</t>
+  </si>
+  <si>
+    <t>X1903251430587247</t>
+  </si>
+  <si>
+    <t>X1803091025440341</t>
+  </si>
+  <si>
+    <t>X1803091025430332</t>
+  </si>
+  <si>
+    <t>X1803091025540416</t>
+  </si>
+  <si>
+    <t>X1803091025520407</t>
+  </si>
+  <si>
+    <t>X1803091025580452</t>
+  </si>
+  <si>
+    <t>X1803091025530410</t>
+  </si>
+  <si>
+    <t>X1803091025520401</t>
+  </si>
+  <si>
+    <t>X1903271455464495</t>
+  </si>
+  <si>
+    <t>X1903211001071693</t>
+  </si>
+  <si>
+    <t>X1808221717420353</t>
+  </si>
+  <si>
+    <t>X1903221709071488</t>
+  </si>
+  <si>
+    <t>X1803091025420326</t>
+  </si>
+  <si>
+    <t>X1804021736490324</t>
+  </si>
+  <si>
+    <t>X1907011346537595</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,16 +683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.109375" customWidth="1"/>
@@ -659,55 +780,400 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
